--- a/export/MGS_export.xlsx
+++ b/export/MGS_export.xlsx
@@ -537,7 +537,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -629,13 +629,13 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>-0</v>
+        <v>1.304457284609194E-08</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1.304457284609194E-08</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>6.009114365778562E-14</v>
       </c>
       <c r="G10">
         <v>2181.697</v>
@@ -652,13 +652,13 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>2181.000000013044</v>
       </c>
       <c r="F11" s="1">
-        <v>0</v>
+        <v>0.01004699700517052</v>
       </c>
       <c r="G11">
         <v>2181.697</v>
@@ -675,13 +675,13 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4362.000000013045</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>0.02009399401028094</v>
       </c>
       <c r="G12">
         <v>2181.697</v>
@@ -698,13 +698,13 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>-0</v>
+        <v>2181</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F13" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G13">
         <v>2181.697</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F14" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G14">
         <v>2181.697</v>
@@ -747,10 +747,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G15">
         <v>2181.697</v>
@@ -770,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G16">
         <v>2181.697</v>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G17">
         <v>2181.697</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F18" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G18">
         <v>2181.697</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F19" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G19">
         <v>2181.697</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F20" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G20">
         <v>2181.697</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F21" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G21">
         <v>2181.697</v>
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F22" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G22">
         <v>2181.697</v>
@@ -928,13 +928,13 @@
         <v>4</v>
       </c>
       <c r="D23">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F23" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G23">
         <v>2181.697</v>
@@ -954,10 +954,10 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F24" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G24">
         <v>2181.697</v>
@@ -977,10 +977,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F25" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G25">
         <v>2181.697</v>
@@ -1000,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F26" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G26">
         <v>2181.697</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>6543.000000013045</v>
       </c>
       <c r="F27" s="1">
-        <v>0</v>
+        <v>0.03014099101539137</v>
       </c>
       <c r="G27">
         <v>2181.697</v>
@@ -1046,10 +1046,10 @@
         <v>2130</v>
       </c>
       <c r="E28">
-        <v>2130</v>
+        <v>8673.000000013044</v>
       </c>
       <c r="F28" s="1">
-        <v>0.009812060348869878</v>
+        <v>0.03995305136426124</v>
       </c>
       <c r="G28">
         <v>2181.697</v>
@@ -1066,13 +1066,13 @@
         <v>4</v>
       </c>
       <c r="D29">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>4311</v>
+        <v>8673.000000013044</v>
       </c>
       <c r="F29" s="1">
-        <v>0.0198590573539803</v>
+        <v>0.03995305136426124</v>
       </c>
       <c r="G29">
         <v>2181.697</v>
@@ -1089,13 +1089,13 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>6492</v>
+        <v>8673.000000013044</v>
       </c>
       <c r="F30" s="1">
-        <v>0.02990605435909073</v>
+        <v>0.03995305136426124</v>
       </c>
       <c r="G30">
         <v>2181.697</v>
@@ -1112,13 +1112,13 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>8673</v>
+        <v>8673.000000013044</v>
       </c>
       <c r="F31" s="1">
-        <v>0.03995305136420115</v>
+        <v>0.03995305136426124</v>
       </c>
       <c r="G31">
         <v>2181.697</v>
@@ -1138,10 +1138,10 @@
         <v>2181</v>
       </c>
       <c r="E32">
-        <v>10854</v>
+        <v>10854.00000001304</v>
       </c>
       <c r="F32" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.05000004836937166</v>
       </c>
       <c r="G32">
         <v>2181.697</v>
@@ -1158,13 +1158,13 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E33">
-        <v>10854</v>
+        <v>13035.00000001304</v>
       </c>
       <c r="F33" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.06004704537448209</v>
       </c>
       <c r="G33">
         <v>2181.697</v>
@@ -1181,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2180.999999991052</v>
       </c>
       <c r="E34">
-        <v>10854</v>
+        <v>15216.0000000041</v>
       </c>
       <c r="F34" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.0700940423795513</v>
       </c>
       <c r="G34">
         <v>2181.697</v>
@@ -1204,13 +1204,13 @@
         <v>5</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E35">
-        <v>10854</v>
+        <v>17397.0000000041</v>
       </c>
       <c r="F35" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.08014103938466172</v>
       </c>
       <c r="G35">
         <v>2181.697</v>
@@ -1227,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E36">
-        <v>10854</v>
+        <v>19578.0000000041</v>
       </c>
       <c r="F36" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.09018803638977214</v>
       </c>
       <c r="G36">
         <v>2181.697</v>
@@ -1250,13 +1250,13 @@
         <v>5</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E37">
-        <v>10854</v>
+        <v>21759.0000000041</v>
       </c>
       <c r="F37" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.1002350333948826</v>
       </c>
       <c r="G37">
         <v>2181.697</v>
@@ -1273,13 +1273,13 @@
         <v>5</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E38">
-        <v>10854</v>
+        <v>23940.0000000041</v>
       </c>
       <c r="F38" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.110282030399993</v>
       </c>
       <c r="G38">
         <v>2181.697</v>
@@ -1296,13 +1296,13 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E39">
-        <v>10854</v>
+        <v>26121.0000000041</v>
       </c>
       <c r="F39" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.1203290274051034</v>
       </c>
       <c r="G39">
         <v>2181.697</v>
@@ -1319,13 +1319,13 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>2180.999999999978</v>
       </c>
       <c r="E40">
-        <v>10854</v>
+        <v>28302.00000000407</v>
       </c>
       <c r="F40" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.1303760244102137</v>
       </c>
       <c r="G40">
         <v>2181.697</v>
@@ -1342,13 +1342,13 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>2180.999999995409</v>
       </c>
       <c r="E41">
-        <v>10854</v>
+        <v>30482.99999999948</v>
       </c>
       <c r="F41" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.140423021415303</v>
       </c>
       <c r="G41">
         <v>2181.697</v>
@@ -1365,13 +1365,13 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E42">
-        <v>10854</v>
+        <v>32663.99999999948</v>
       </c>
       <c r="F42" s="1">
-        <v>0.05000004836931158</v>
+        <v>0.1504700184204134</v>
       </c>
       <c r="G42">
         <v>2181.697</v>
@@ -1391,10 +1391,10 @@
         <v>2181</v>
       </c>
       <c r="E43">
-        <v>13035</v>
+        <v>34844.99999999948</v>
       </c>
       <c r="F43" s="1">
-        <v>0.060047045374422</v>
+        <v>0.1605170154255239</v>
       </c>
       <c r="G43">
         <v>2181.697</v>
@@ -1411,13 +1411,13 @@
         <v>5</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E44">
-        <v>13035</v>
+        <v>37025.99999999948</v>
       </c>
       <c r="F44" s="1">
-        <v>0.060047045374422</v>
+        <v>0.1705640124306343</v>
       </c>
       <c r="G44">
         <v>2181.697</v>
@@ -1434,13 +1434,13 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E45">
-        <v>13035</v>
+        <v>39206.99999999948</v>
       </c>
       <c r="F45" s="1">
-        <v>0.060047045374422</v>
+        <v>0.1806110094357447</v>
       </c>
       <c r="G45">
         <v>2181.697</v>
@@ -1457,13 +1457,13 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>2150</v>
+        <v>2181</v>
       </c>
       <c r="E46">
-        <v>15185</v>
+        <v>41387.99999999948</v>
       </c>
       <c r="F46" s="1">
-        <v>0.06995123774534699</v>
+        <v>0.1906580064408551</v>
       </c>
       <c r="G46">
         <v>2181.697</v>
@@ -1483,10 +1483,10 @@
         <v>2181</v>
       </c>
       <c r="E47">
-        <v>17366</v>
+        <v>43568.99999999948</v>
       </c>
       <c r="F47" s="1">
-        <v>0.07999823475045742</v>
+        <v>0.2007050034459656</v>
       </c>
       <c r="G47">
         <v>2181.697</v>
@@ -1503,13 +1503,13 @@
         <v>5</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E48">
-        <v>17366</v>
+        <v>45749.99999999948</v>
       </c>
       <c r="F48" s="1">
-        <v>0.07999823475045742</v>
+        <v>0.210752000451076</v>
       </c>
       <c r="G48">
         <v>2181.697</v>
@@ -1529,10 +1529,10 @@
         <v>2181</v>
       </c>
       <c r="E49">
-        <v>19547</v>
+        <v>47930.99999999948</v>
       </c>
       <c r="F49" s="1">
-        <v>0.09004523175556785</v>
+        <v>0.2207989974561864</v>
       </c>
       <c r="G49">
         <v>2181.697</v>
@@ -1552,10 +1552,10 @@
         <v>2181</v>
       </c>
       <c r="E50">
-        <v>21728</v>
+        <v>50111.99999999948</v>
       </c>
       <c r="F50" s="1">
-        <v>0.1000922287606783</v>
+        <v>0.2308459944612968</v>
       </c>
       <c r="G50">
         <v>2181.697</v>
@@ -1572,13 +1572,13 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>2181</v>
+        <v>2180.999999996677</v>
       </c>
       <c r="E51">
-        <v>23909</v>
+        <v>52292.99999999616</v>
       </c>
       <c r="F51" s="1">
-        <v>0.1101392257657887</v>
+        <v>0.240892991466392</v>
       </c>
       <c r="G51">
         <v>2181.697</v>
@@ -1595,13 +1595,13 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <v>2140</v>
+        <v>2181</v>
       </c>
       <c r="E52">
-        <v>26049</v>
+        <v>54473.99999999616</v>
       </c>
       <c r="F52" s="1">
-        <v>0.1199973521256861</v>
+        <v>0.2509399884715024</v>
       </c>
       <c r="G52">
         <v>2181.697</v>
@@ -1621,10 +1621,10 @@
         <v>2181</v>
       </c>
       <c r="E53">
-        <v>28230</v>
+        <v>56654.99999999616</v>
       </c>
       <c r="F53" s="1">
-        <v>0.1300443491307965</v>
+        <v>0.2609869854766128</v>
       </c>
       <c r="G53">
         <v>2181.697</v>
@@ -1644,10 +1644,10 @@
         <v>2181</v>
       </c>
       <c r="E54">
-        <v>30411</v>
+        <v>58835.99999999616</v>
       </c>
       <c r="F54" s="1">
-        <v>0.140091346135907</v>
+        <v>0.2710339824817232</v>
       </c>
       <c r="G54">
         <v>2181.697</v>
@@ -1667,10 +1667,10 @@
         <v>2181</v>
       </c>
       <c r="E55">
-        <v>32592</v>
+        <v>61016.99999999616</v>
       </c>
       <c r="F55" s="1">
-        <v>0.1501383431410174</v>
+        <v>0.2810809794868336</v>
       </c>
       <c r="G55">
         <v>2181.697</v>
@@ -1690,10 +1690,10 @@
         <v>2181</v>
       </c>
       <c r="E56">
-        <v>34773</v>
+        <v>63197.99999999616</v>
       </c>
       <c r="F56" s="1">
-        <v>0.1601853401461278</v>
+        <v>0.2911279764919441</v>
       </c>
       <c r="G56">
         <v>2181.697</v>
@@ -1713,10 +1713,10 @@
         <v>2181</v>
       </c>
       <c r="E57">
-        <v>36954</v>
+        <v>65378.99999999616</v>
       </c>
       <c r="F57" s="1">
-        <v>0.1702323371512383</v>
+        <v>0.3011749734970545</v>
       </c>
       <c r="G57">
         <v>2181.697</v>
@@ -1736,10 +1736,10 @@
         <v>2181</v>
       </c>
       <c r="E58">
-        <v>39135</v>
+        <v>67559.99999999616</v>
       </c>
       <c r="F58" s="1">
-        <v>0.1802793341563487</v>
+        <v>0.3112219705021649</v>
       </c>
       <c r="G58">
         <v>2181.697</v>
@@ -1756,13 +1756,13 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E59">
-        <v>39135</v>
+        <v>69740.99999999616</v>
       </c>
       <c r="F59" s="1">
-        <v>0.1802793341563487</v>
+        <v>0.3212689675072753</v>
       </c>
       <c r="G59">
         <v>2181.697</v>
@@ -1779,13 +1779,13 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>1477</v>
+        <v>2180.999999985142</v>
       </c>
       <c r="E60">
-        <v>40612</v>
+        <v>71921.9999999813</v>
       </c>
       <c r="F60" s="1">
-        <v>0.187083283985119</v>
+        <v>0.3313159645123173</v>
       </c>
       <c r="G60">
         <v>2181.697</v>
@@ -1802,13 +1802,13 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E61">
-        <v>40612</v>
+        <v>74102.9999999813</v>
       </c>
       <c r="F61" s="1">
-        <v>0.187083283985119</v>
+        <v>0.3413629615174277</v>
       </c>
       <c r="G61">
         <v>2181.697</v>
@@ -1828,10 +1828,10 @@
         <v>2181</v>
       </c>
       <c r="E62">
-        <v>42793</v>
+        <v>76283.9999999813</v>
       </c>
       <c r="F62" s="1">
-        <v>0.1971302809902294</v>
+        <v>0.3514099585225382</v>
       </c>
       <c r="G62">
         <v>2181.697</v>
@@ -1851,10 +1851,10 @@
         <v>2181</v>
       </c>
       <c r="E63">
-        <v>44974</v>
+        <v>78464.9999999813</v>
       </c>
       <c r="F63" s="1">
-        <v>0.2071772779953399</v>
+        <v>0.3614569555276486</v>
       </c>
       <c r="G63">
         <v>2181.697</v>
@@ -1874,10 +1874,10 @@
         <v>2181</v>
       </c>
       <c r="E64">
-        <v>47155</v>
+        <v>80645.9999999813</v>
       </c>
       <c r="F64" s="1">
-        <v>0.2172242750004503</v>
+        <v>0.371503952532759</v>
       </c>
       <c r="G64">
         <v>2181.697</v>
@@ -1897,10 +1897,10 @@
         <v>2181</v>
       </c>
       <c r="E65">
-        <v>49336</v>
+        <v>82826.9999999813</v>
       </c>
       <c r="F65" s="1">
-        <v>0.2272712720055607</v>
+        <v>0.3815509495378694</v>
       </c>
       <c r="G65">
         <v>2181.697</v>
@@ -1920,10 +1920,10 @@
         <v>2181</v>
       </c>
       <c r="E66">
-        <v>51517</v>
+        <v>85007.9999999813</v>
       </c>
       <c r="F66" s="1">
-        <v>0.2373182690106711</v>
+        <v>0.3915979465429799</v>
       </c>
       <c r="G66">
         <v>2181.697</v>
@@ -1943,10 +1943,10 @@
         <v>2181</v>
       </c>
       <c r="E67">
-        <v>53698</v>
+        <v>87188.9999999813</v>
       </c>
       <c r="F67" s="1">
-        <v>0.2473652660157816</v>
+        <v>0.4016449435480903</v>
       </c>
       <c r="G67">
         <v>2181.697</v>
@@ -1966,10 +1966,10 @@
         <v>2181</v>
       </c>
       <c r="E68">
-        <v>55879</v>
+        <v>89369.9999999813</v>
       </c>
       <c r="F68" s="1">
-        <v>0.257412263020892</v>
+        <v>0.4116919405532007</v>
       </c>
       <c r="G68">
         <v>2181.697</v>
@@ -1989,10 +1989,10 @@
         <v>2181</v>
       </c>
       <c r="E69">
-        <v>58060</v>
+        <v>91550.9999999813</v>
       </c>
       <c r="F69" s="1">
-        <v>0.2674592600260024</v>
+        <v>0.4217389375583112</v>
       </c>
       <c r="G69">
         <v>2181.697</v>
@@ -2012,10 +2012,10 @@
         <v>2181</v>
       </c>
       <c r="E70">
-        <v>60241</v>
+        <v>93731.9999999813</v>
       </c>
       <c r="F70" s="1">
-        <v>0.2775062570311128</v>
+        <v>0.4317859345634216</v>
       </c>
       <c r="G70">
         <v>2181.697</v>
@@ -2035,10 +2035,10 @@
         <v>2181</v>
       </c>
       <c r="E71">
-        <v>62422</v>
+        <v>95912.9999999813</v>
       </c>
       <c r="F71" s="1">
-        <v>0.2875532540362233</v>
+        <v>0.441832931568532</v>
       </c>
       <c r="G71">
         <v>2181.697</v>
@@ -2058,10 +2058,10 @@
         <v>2181</v>
       </c>
       <c r="E72">
-        <v>64603</v>
+        <v>98093.9999999813</v>
       </c>
       <c r="F72" s="1">
-        <v>0.2976002510413337</v>
+        <v>0.4518799285736424</v>
       </c>
       <c r="G72">
         <v>2181.697</v>
@@ -2081,10 +2081,10 @@
         <v>2181</v>
       </c>
       <c r="E73">
-        <v>66784</v>
+        <v>100274.9999999813</v>
       </c>
       <c r="F73" s="1">
-        <v>0.3076472480464441</v>
+        <v>0.4619269255787529</v>
       </c>
       <c r="G73">
         <v>2181.697</v>
@@ -2104,10 +2104,10 @@
         <v>2181</v>
       </c>
       <c r="E74">
-        <v>68965</v>
+        <v>102455.9999999813</v>
       </c>
       <c r="F74" s="1">
-        <v>0.3176942450515545</v>
+        <v>0.4719739225838633</v>
       </c>
       <c r="G74">
         <v>2181.697</v>
@@ -2127,10 +2127,10 @@
         <v>2181</v>
       </c>
       <c r="E75">
-        <v>71146</v>
+        <v>104636.9999999813</v>
       </c>
       <c r="F75" s="1">
-        <v>0.3277412420566649</v>
+        <v>0.4820209195889737</v>
       </c>
       <c r="G75">
         <v>2181.697</v>
@@ -2150,10 +2150,10 @@
         <v>2181</v>
       </c>
       <c r="E76">
-        <v>73327</v>
+        <v>106817.9999999813</v>
       </c>
       <c r="F76" s="1">
-        <v>0.3377882390617754</v>
+        <v>0.4920679165940841</v>
       </c>
       <c r="G76">
         <v>2181.697</v>
@@ -2173,10 +2173,10 @@
         <v>2181</v>
       </c>
       <c r="E77">
-        <v>75508</v>
+        <v>108998.9999999813</v>
       </c>
       <c r="F77" s="1">
-        <v>0.3478352360668858</v>
+        <v>0.5021149135991946</v>
       </c>
       <c r="G77">
         <v>2181.697</v>
@@ -2196,10 +2196,10 @@
         <v>2181</v>
       </c>
       <c r="E78">
-        <v>77689</v>
+        <v>111179.9999999813</v>
       </c>
       <c r="F78" s="1">
-        <v>0.3578822330719962</v>
+        <v>0.512161910604305</v>
       </c>
       <c r="G78">
         <v>2181.697</v>
@@ -2219,10 +2219,10 @@
         <v>2181</v>
       </c>
       <c r="E79">
-        <v>79870</v>
+        <v>113360.9999999813</v>
       </c>
       <c r="F79" s="1">
-        <v>0.3679292300771067</v>
+        <v>0.5222089076094155</v>
       </c>
       <c r="G79">
         <v>2181.697</v>
@@ -2242,10 +2242,10 @@
         <v>2181</v>
       </c>
       <c r="E80">
-        <v>82051</v>
+        <v>115541.9999999813</v>
       </c>
       <c r="F80" s="1">
-        <v>0.3779762270822171</v>
+        <v>0.5322559046145259</v>
       </c>
       <c r="G80">
         <v>2181.697</v>
@@ -2265,10 +2265,10 @@
         <v>2181</v>
       </c>
       <c r="E81">
-        <v>84232</v>
+        <v>117722.9999999813</v>
       </c>
       <c r="F81" s="1">
-        <v>0.3880232240873275</v>
+        <v>0.5423029016196363</v>
       </c>
       <c r="G81">
         <v>2181.697</v>
@@ -2288,10 +2288,10 @@
         <v>2181</v>
       </c>
       <c r="E82">
-        <v>86413</v>
+        <v>119903.9999999813</v>
       </c>
       <c r="F82" s="1">
-        <v>0.3980702210924379</v>
+        <v>0.5523498986247467</v>
       </c>
       <c r="G82">
         <v>2181.697</v>
@@ -2311,10 +2311,10 @@
         <v>2181</v>
       </c>
       <c r="E83">
-        <v>88594</v>
+        <v>122084.9999999813</v>
       </c>
       <c r="F83" s="1">
-        <v>0.4081172180975484</v>
+        <v>0.5623968956298572</v>
       </c>
       <c r="G83">
         <v>2181.697</v>
@@ -2334,10 +2334,10 @@
         <v>2181</v>
       </c>
       <c r="E84">
-        <v>90775</v>
+        <v>124265.9999999813</v>
       </c>
       <c r="F84" s="1">
-        <v>0.4181642151026588</v>
+        <v>0.5724438926349675</v>
       </c>
       <c r="G84">
         <v>2181.697</v>
@@ -2357,10 +2357,10 @@
         <v>2181</v>
       </c>
       <c r="E85">
-        <v>92956</v>
+        <v>126446.9999999813</v>
       </c>
       <c r="F85" s="1">
-        <v>0.4282112121077692</v>
+        <v>0.582490889640078</v>
       </c>
       <c r="G85">
         <v>2181.697</v>
@@ -2380,10 +2380,10 @@
         <v>2181</v>
       </c>
       <c r="E86">
-        <v>95137</v>
+        <v>128627.9999999813</v>
       </c>
       <c r="F86" s="1">
-        <v>0.4382582091128796</v>
+        <v>0.5925378866451885</v>
       </c>
       <c r="G86">
         <v>2181.697</v>
@@ -2403,10 +2403,10 @@
         <v>2181</v>
       </c>
       <c r="E87">
-        <v>97318</v>
+        <v>130808.9999999813</v>
       </c>
       <c r="F87" s="1">
-        <v>0.4483052061179901</v>
+        <v>0.6025848836502988</v>
       </c>
       <c r="G87">
         <v>2181.697</v>
@@ -2426,10 +2426,10 @@
         <v>2181</v>
       </c>
       <c r="E88">
-        <v>99499</v>
+        <v>132989.9999999813</v>
       </c>
       <c r="F88" s="1">
-        <v>0.4583522031231005</v>
+        <v>0.6126318806554093</v>
       </c>
       <c r="G88">
         <v>2181.697</v>
@@ -2449,10 +2449,10 @@
         <v>2181</v>
       </c>
       <c r="E89">
-        <v>101680</v>
+        <v>135170.9999999813</v>
       </c>
       <c r="F89" s="1">
-        <v>0.4683992001282109</v>
+        <v>0.6226788776605197</v>
       </c>
       <c r="G89">
         <v>2181.697</v>
@@ -2472,10 +2472,10 @@
         <v>2181</v>
       </c>
       <c r="E90">
-        <v>103861</v>
+        <v>137351.9999999813</v>
       </c>
       <c r="F90" s="1">
-        <v>0.4784461971333213</v>
+        <v>0.6327258746656301</v>
       </c>
       <c r="G90">
         <v>2181.697</v>
@@ -2495,10 +2495,10 @@
         <v>2181</v>
       </c>
       <c r="E91">
-        <v>106042</v>
+        <v>139532.9999999813</v>
       </c>
       <c r="F91" s="1">
-        <v>0.4884931941384317</v>
+        <v>0.6427728716707406</v>
       </c>
       <c r="G91">
         <v>2181.697</v>
@@ -2518,10 +2518,10 @@
         <v>2181</v>
       </c>
       <c r="E92">
-        <v>108223</v>
+        <v>141713.9999999813</v>
       </c>
       <c r="F92" s="1">
-        <v>0.4985401911435422</v>
+        <v>0.652819868675851</v>
       </c>
       <c r="G92">
         <v>2181.697</v>
@@ -2541,10 +2541,10 @@
         <v>2181</v>
       </c>
       <c r="E93">
-        <v>110404</v>
+        <v>143894.9999999813</v>
       </c>
       <c r="F93" s="1">
-        <v>0.5085871881486526</v>
+        <v>0.6628668656809614</v>
       </c>
       <c r="G93">
         <v>2181.697</v>
@@ -2564,10 +2564,10 @@
         <v>2181</v>
       </c>
       <c r="E94">
-        <v>112585</v>
+        <v>146075.9999999813</v>
       </c>
       <c r="F94" s="1">
-        <v>0.518634185153763</v>
+        <v>0.6729138626860718</v>
       </c>
       <c r="G94">
         <v>2181.697</v>
@@ -2587,10 +2587,10 @@
         <v>2181</v>
       </c>
       <c r="E95">
-        <v>114766</v>
+        <v>148256.9999999813</v>
       </c>
       <c r="F95" s="1">
-        <v>0.5286811821588735</v>
+        <v>0.6829608596911823</v>
       </c>
       <c r="G95">
         <v>2181.697</v>
@@ -2610,10 +2610,10 @@
         <v>2181</v>
       </c>
       <c r="E96">
-        <v>116947</v>
+        <v>150437.9999999813</v>
       </c>
       <c r="F96" s="1">
-        <v>0.5387281791639839</v>
+        <v>0.6930078566962927</v>
       </c>
       <c r="G96">
         <v>2181.697</v>
@@ -2633,10 +2633,10 @@
         <v>2181</v>
       </c>
       <c r="E97">
-        <v>119128</v>
+        <v>152618.9999999813</v>
       </c>
       <c r="F97" s="1">
-        <v>0.5487751761690943</v>
+        <v>0.7030548537014031</v>
       </c>
       <c r="G97">
         <v>2181.697</v>
@@ -2656,10 +2656,10 @@
         <v>2181</v>
       </c>
       <c r="E98">
-        <v>121309</v>
+        <v>154799.9999999813</v>
       </c>
       <c r="F98" s="1">
-        <v>0.5588221731742047</v>
+        <v>0.7131018507065136</v>
       </c>
       <c r="G98">
         <v>2181.697</v>
@@ -2679,10 +2679,10 @@
         <v>2181</v>
       </c>
       <c r="E99">
-        <v>123490</v>
+        <v>156980.9999999813</v>
       </c>
       <c r="F99" s="1">
-        <v>0.5688691701793152</v>
+        <v>0.7231488477116239</v>
       </c>
       <c r="G99">
         <v>2181.697</v>
@@ -2702,10 +2702,10 @@
         <v>2181</v>
       </c>
       <c r="E100">
-        <v>125671</v>
+        <v>159161.9999999813</v>
       </c>
       <c r="F100" s="1">
-        <v>0.5789161671844256</v>
+        <v>0.7331958447167344</v>
       </c>
       <c r="G100">
         <v>2181.697</v>
@@ -2725,10 +2725,10 @@
         <v>2181</v>
       </c>
       <c r="E101">
-        <v>127852</v>
+        <v>161342.9999999813</v>
       </c>
       <c r="F101" s="1">
-        <v>0.588963164189536</v>
+        <v>0.7432428417218448</v>
       </c>
       <c r="G101">
         <v>2181.697</v>
@@ -2748,10 +2748,10 @@
         <v>2181</v>
       </c>
       <c r="E102">
-        <v>130033</v>
+        <v>163523.9999999813</v>
       </c>
       <c r="F102" s="1">
-        <v>0.5990101611946465</v>
+        <v>0.7532898387269552</v>
       </c>
       <c r="G102">
         <v>2181.697</v>
@@ -2771,10 +2771,10 @@
         <v>2181</v>
       </c>
       <c r="E103">
-        <v>132214</v>
+        <v>165704.9999999813</v>
       </c>
       <c r="F103" s="1">
-        <v>0.6090571581997568</v>
+        <v>0.7633368357320657</v>
       </c>
       <c r="G103">
         <v>2181.697</v>
@@ -2794,10 +2794,10 @@
         <v>2181</v>
       </c>
       <c r="E104">
-        <v>134395</v>
+        <v>167885.9999999813</v>
       </c>
       <c r="F104" s="1">
-        <v>0.6191041552048673</v>
+        <v>0.773383832737176</v>
       </c>
       <c r="G104">
         <v>2181.697</v>
@@ -2817,10 +2817,10 @@
         <v>2181</v>
       </c>
       <c r="E105">
-        <v>136576</v>
+        <v>170066.9999999813</v>
       </c>
       <c r="F105" s="1">
-        <v>0.6291511522099777</v>
+        <v>0.7834308297422865</v>
       </c>
       <c r="G105">
         <v>2181.697</v>
@@ -2840,10 +2840,10 @@
         <v>2181</v>
       </c>
       <c r="E106">
-        <v>138757</v>
+        <v>172247.9999999813</v>
       </c>
       <c r="F106" s="1">
-        <v>0.6391981492150881</v>
+        <v>0.793477826747397</v>
       </c>
       <c r="G106">
         <v>2181.697</v>
@@ -2863,10 +2863,10 @@
         <v>2181</v>
       </c>
       <c r="E107">
-        <v>140938</v>
+        <v>174428.9999999813</v>
       </c>
       <c r="F107" s="1">
-        <v>0.6492451462201986</v>
+        <v>0.8035248237525073</v>
       </c>
       <c r="G107">
         <v>2181.697</v>
@@ -2883,16 +2883,16 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>2181</v>
+        <v>2109</v>
       </c>
       <c r="E108">
-        <v>143119</v>
+        <v>176537.9999999813</v>
       </c>
       <c r="F108" s="1">
-        <v>0.6592921432253089</v>
+        <v>0.8132401454782193</v>
       </c>
       <c r="G108">
-        <v>2181.697</v>
+        <v>2109.30829354</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2906,16 +2906,16 @@
         <v>7</v>
       </c>
       <c r="D109">
-        <v>2181</v>
+        <v>2109</v>
       </c>
       <c r="E109">
-        <v>145300</v>
+        <v>178646.9999999813</v>
       </c>
       <c r="F109" s="1">
-        <v>0.6693391402304194</v>
+        <v>0.8229554672039314</v>
       </c>
       <c r="G109">
-        <v>2181.697</v>
+        <v>2109.30829354</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2929,16 +2929,16 @@
         <v>7</v>
       </c>
       <c r="D110">
-        <v>2181</v>
+        <v>2109</v>
       </c>
       <c r="E110">
-        <v>147481</v>
+        <v>180755.9999999813</v>
       </c>
       <c r="F110" s="1">
-        <v>0.6793861372355299</v>
+        <v>0.8326707889296434</v>
       </c>
       <c r="G110">
-        <v>2181.697</v>
+        <v>2109.30829354</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2952,16 +2952,16 @@
         <v>7</v>
       </c>
       <c r="D111">
-        <v>2181</v>
+        <v>2012</v>
       </c>
       <c r="E111">
-        <v>149662</v>
+        <v>182767.9999999813</v>
       </c>
       <c r="F111" s="1">
-        <v>0.6894331342406402</v>
+        <v>0.8419392703483881</v>
       </c>
       <c r="G111">
-        <v>2181.697</v>
+        <v>2012.79001826</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2975,16 +2975,16 @@
         <v>7</v>
       </c>
       <c r="D112">
-        <v>2181</v>
+        <v>2012</v>
       </c>
       <c r="E112">
-        <v>151843</v>
+        <v>184779.9999999813</v>
       </c>
       <c r="F112" s="1">
-        <v>0.6994801312457507</v>
+        <v>0.8512077517671328</v>
       </c>
       <c r="G112">
-        <v>2181.697</v>
+        <v>2012.79001826</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2998,16 +2998,16 @@
         <v>7</v>
       </c>
       <c r="D113">
-        <v>2181</v>
+        <v>2012</v>
       </c>
       <c r="E113">
-        <v>154024</v>
+        <v>186791.9999999813</v>
       </c>
       <c r="F113" s="1">
-        <v>0.7095271282508611</v>
+        <v>0.8604762331858774</v>
       </c>
       <c r="G113">
-        <v>2181.697</v>
+        <v>2012.79001826</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3021,16 +3021,16 @@
         <v>7</v>
       </c>
       <c r="D114">
-        <v>2181</v>
+        <v>2012</v>
       </c>
       <c r="E114">
-        <v>156205</v>
+        <v>188803.9999999813</v>
       </c>
       <c r="F114" s="1">
-        <v>0.7195741252559715</v>
+        <v>0.8697447146046221</v>
       </c>
       <c r="G114">
-        <v>2181.697</v>
+        <v>2012.79001826</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3044,16 +3044,16 @@
         <v>7</v>
       </c>
       <c r="D115">
-        <v>2181</v>
+        <v>2012</v>
       </c>
       <c r="E115">
-        <v>158386</v>
+        <v>190815.9999999813</v>
       </c>
       <c r="F115" s="1">
-        <v>0.729621122261082</v>
+        <v>0.8790131960233668</v>
       </c>
       <c r="G115">
-        <v>2181.697</v>
+        <v>2012.79001826</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3067,16 +3067,16 @@
         <v>7</v>
       </c>
       <c r="D116">
-        <v>2181</v>
+        <v>1916</v>
       </c>
       <c r="E116">
-        <v>160567</v>
+        <v>192731.9999999813</v>
       </c>
       <c r="F116" s="1">
-        <v>0.7396681192661924</v>
+        <v>0.887839443736247</v>
       </c>
       <c r="G116">
-        <v>2181.697</v>
+        <v>1916.27174298</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3090,16 +3090,16 @@
         <v>7</v>
       </c>
       <c r="D117">
-        <v>2181</v>
+        <v>1916</v>
       </c>
       <c r="E117">
-        <v>162748</v>
+        <v>194647.9999999813</v>
       </c>
       <c r="F117" s="1">
-        <v>0.7497151162713028</v>
+        <v>0.8966656914491271</v>
       </c>
       <c r="G117">
-        <v>2181.697</v>
+        <v>1916.27174298</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3113,16 +3113,16 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <v>2181</v>
+        <v>1916</v>
       </c>
       <c r="E118">
-        <v>164929</v>
+        <v>196563.9999999813</v>
       </c>
       <c r="F118" s="1">
-        <v>0.7597621132764132</v>
+        <v>0.9054919391620072</v>
       </c>
       <c r="G118">
-        <v>2181.697</v>
+        <v>1916.27174298</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3136,16 +3136,16 @@
         <v>7</v>
       </c>
       <c r="D119">
-        <v>2181</v>
+        <v>1916</v>
       </c>
       <c r="E119">
-        <v>167110</v>
+        <v>198479.9999999813</v>
       </c>
       <c r="F119" s="1">
-        <v>0.7698091102815237</v>
+        <v>0.9143181868748874</v>
       </c>
       <c r="G119">
-        <v>2181.697</v>
+        <v>1916.27174298</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3159,16 +3159,16 @@
         <v>7</v>
       </c>
       <c r="D120">
-        <v>2181</v>
+        <v>1819</v>
       </c>
       <c r="E120">
-        <v>169291</v>
+        <v>200298.9999999813</v>
       </c>
       <c r="F120" s="1">
-        <v>0.779856107286634</v>
+        <v>0.9226975942808002</v>
       </c>
       <c r="G120">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3182,16 +3182,16 @@
         <v>7</v>
       </c>
       <c r="D121">
-        <v>2181</v>
+        <v>1819</v>
       </c>
       <c r="E121">
-        <v>171472</v>
+        <v>202117.9999999813</v>
       </c>
       <c r="F121" s="1">
-        <v>0.7899031042917445</v>
+        <v>0.931077001686713</v>
       </c>
       <c r="G121">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3205,16 +3205,16 @@
         <v>7</v>
       </c>
       <c r="D122">
-        <v>2181</v>
+        <v>1819</v>
       </c>
       <c r="E122">
-        <v>173653</v>
+        <v>203936.9999999813</v>
       </c>
       <c r="F122" s="1">
-        <v>0.799950101296855</v>
+        <v>0.9394564090926258</v>
       </c>
       <c r="G122">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3228,16 +3228,16 @@
         <v>7</v>
       </c>
       <c r="D123">
-        <v>2181</v>
+        <v>1819</v>
       </c>
       <c r="E123">
-        <v>175834</v>
+        <v>205755.9999999813</v>
       </c>
       <c r="F123" s="1">
-        <v>0.8099970983019653</v>
+        <v>0.9478358164985387</v>
       </c>
       <c r="G123">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3251,16 +3251,16 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>919</v>
       </c>
       <c r="E124">
-        <v>175834</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F124" s="1">
-        <v>0.8099970983019653</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G124">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>175834</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F125" s="1">
-        <v>0.8099970983019653</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G125">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3300,13 +3300,13 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>175834</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F126" s="1">
-        <v>0.8099970983019653</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G126">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <v>175834</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F127" s="1">
-        <v>0.8099970983019653</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G127">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>175834</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F128" s="1">
-        <v>0.8099970983019653</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G128">
-        <v>2181.697</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3366,16 +3366,16 @@
         <v>8</v>
       </c>
       <c r="D129">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="E129">
-        <v>177943</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F129" s="1">
-        <v>0.8197124200276773</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G129">
-        <v>2109.30829354</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3389,16 +3389,16 @@
         <v>8</v>
       </c>
       <c r="D130">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="E130">
-        <v>180052</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F130" s="1">
-        <v>0.8294277417533894</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G130">
-        <v>2109.30829354</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3412,16 +3412,16 @@
         <v>8</v>
       </c>
       <c r="D131">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="E131">
-        <v>182161</v>
+        <v>206674.9999999813</v>
       </c>
       <c r="F131" s="1">
-        <v>0.8391430634791014</v>
+        <v>0.9520692829119712</v>
       </c>
       <c r="G131">
-        <v>2109.30829354</v>
+        <v>1819.7534677</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3435,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="E132">
-        <v>182161</v>
+        <v>208396.9999999813</v>
       </c>
       <c r="F132" s="1">
-        <v>0.8391430634791014</v>
+        <v>0.9600018500109168</v>
       </c>
       <c r="G132">
-        <v>2109.30829354</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3461,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>182161</v>
+        <v>208396.9999999813</v>
       </c>
       <c r="F133" s="1">
-        <v>0.8391430634791014</v>
+        <v>0.9600018500109168</v>
       </c>
       <c r="G133">
-        <v>2109.30829354</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3481,16 +3481,16 @@
         <v>8</v>
       </c>
       <c r="D134">
-        <v>1694</v>
+        <v>0</v>
       </c>
       <c r="E134">
-        <v>183855</v>
+        <v>208396.9999999813</v>
       </c>
       <c r="F134" s="1">
-        <v>0.8469466457471697</v>
+        <v>0.9600018500109168</v>
       </c>
       <c r="G134">
-        <v>2012.79001826</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3507,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>183855</v>
+        <v>208396.9999999813</v>
       </c>
       <c r="F135" s="1">
-        <v>0.8469466457471697</v>
+        <v>0.9600018500109168</v>
       </c>
       <c r="G135">
-        <v>2012.79001826</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3527,16 +3527,16 @@
         <v>8</v>
       </c>
       <c r="D136">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="E136">
-        <v>185867</v>
+        <v>208396.9999999813</v>
       </c>
       <c r="F136" s="1">
-        <v>0.8562151271659144</v>
+        <v>0.9600018500109168</v>
       </c>
       <c r="G136">
-        <v>2012.79001826</v>
+        <v>1722.580683320061</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3550,16 +3550,16 @@
         <v>8</v>
       </c>
       <c r="D137">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="E137">
-        <v>185867</v>
+        <v>210118.9999999813</v>
       </c>
       <c r="F137" s="1">
-        <v>0.8562151271659144</v>
+        <v>0.9679344171098623</v>
       </c>
       <c r="G137">
-        <v>2012.79001826</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3573,16 +3573,16 @@
         <v>8</v>
       </c>
       <c r="D138">
-        <v>2012</v>
+        <v>1722</v>
       </c>
       <c r="E138">
-        <v>187879</v>
+        <v>211840.9999999813</v>
       </c>
       <c r="F138" s="1">
-        <v>0.8654836085846591</v>
+        <v>0.9758669842088078</v>
       </c>
       <c r="G138">
-        <v>2012.79001826</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3596,16 +3596,16 @@
         <v>8</v>
       </c>
       <c r="D139">
-        <v>2012</v>
+        <v>0</v>
       </c>
       <c r="E139">
-        <v>189891</v>
+        <v>211840.9999999813</v>
       </c>
       <c r="F139" s="1">
-        <v>0.8747520900034038</v>
+        <v>0.9758669842088078</v>
       </c>
       <c r="G139">
-        <v>2012.79001826</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3619,16 +3619,16 @@
         <v>8</v>
       </c>
       <c r="D140">
-        <v>1916</v>
+        <v>1722</v>
       </c>
       <c r="E140">
-        <v>191807</v>
+        <v>213562.9999999813</v>
       </c>
       <c r="F140" s="1">
-        <v>0.8835783377162839</v>
+        <v>0.9837995513077533</v>
       </c>
       <c r="G140">
-        <v>1916.27174298</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3642,16 +3642,16 @@
         <v>8</v>
       </c>
       <c r="D141">
-        <v>1916</v>
+        <v>1722.000000018698</v>
       </c>
       <c r="E141">
-        <v>193723</v>
+        <v>215285</v>
       </c>
       <c r="F141" s="1">
-        <v>0.892404585429164</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G141">
-        <v>1916.27174298</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3665,16 +3665,16 @@
         <v>8</v>
       </c>
       <c r="D142">
-        <v>1916</v>
+        <v>0</v>
       </c>
       <c r="E142">
-        <v>195639</v>
+        <v>215285</v>
       </c>
       <c r="F142" s="1">
-        <v>0.9012308331420442</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G142">
-        <v>1916.27174298</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3688,16 +3688,16 @@
         <v>8</v>
       </c>
       <c r="D143">
-        <v>1916</v>
+        <v>0</v>
       </c>
       <c r="E143">
-        <v>197555</v>
+        <v>215285</v>
       </c>
       <c r="F143" s="1">
-        <v>0.9100570808549243</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G143">
-        <v>1916.27174298</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3711,16 +3711,16 @@
         <v>8</v>
       </c>
       <c r="D144">
-        <v>1916</v>
+        <v>0</v>
       </c>
       <c r="E144">
-        <v>199471</v>
+        <v>215285</v>
       </c>
       <c r="F144" s="1">
-        <v>0.9188833285678044</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G144">
-        <v>1916.27174298</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3734,16 +3734,16 @@
         <v>8</v>
       </c>
       <c r="D145">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="E145">
-        <v>201290</v>
+        <v>215285</v>
       </c>
       <c r="F145" s="1">
-        <v>0.9272627359737173</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G145">
-        <v>1819.7534677</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3757,16 +3757,16 @@
         <v>8</v>
       </c>
       <c r="D146">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="E146">
-        <v>203109</v>
+        <v>215285</v>
       </c>
       <c r="F146" s="1">
-        <v>0.9356421433796301</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G146">
-        <v>1819.7534677</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3780,16 +3780,16 @@
         <v>8</v>
       </c>
       <c r="D147">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="E147">
-        <v>204928</v>
+        <v>215285</v>
       </c>
       <c r="F147" s="1">
-        <v>0.944021550785543</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G147">
-        <v>1819.7534677</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3803,16 +3803,16 @@
         <v>8</v>
       </c>
       <c r="D148">
-        <v>1819</v>
+        <v>0</v>
       </c>
       <c r="E148">
-        <v>206747</v>
+        <v>215285</v>
       </c>
       <c r="F148" s="1">
-        <v>0.9524009581914558</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G148">
-        <v>1819.7534677</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3826,13 +3826,13 @@
         <v>8</v>
       </c>
       <c r="D149">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="E149">
-        <v>208469</v>
+        <v>215285</v>
       </c>
       <c r="F149" s="1">
-        <v>0.9603335252904013</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G149">
         <v>1722.58068332</v>
@@ -3849,13 +3849,13 @@
         <v>8</v>
       </c>
       <c r="D150">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="E150">
-        <v>210191</v>
+        <v>215285</v>
       </c>
       <c r="F150" s="1">
-        <v>0.9682660923893468</v>
+        <v>0.9917321184067849</v>
       </c>
       <c r="G150">
         <v>1722.58068332</v>
@@ -3875,10 +3875,10 @@
         <v>1722</v>
       </c>
       <c r="E151">
-        <v>211913</v>
+        <v>217007</v>
       </c>
       <c r="F151" s="1">
-        <v>0.9761986594882922</v>
+        <v>0.9996646855057304</v>
       </c>
       <c r="G151">
         <v>1722.58068332</v>
@@ -3895,16 +3895,16 @@
         <v>8</v>
       </c>
       <c r="D152">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="E152">
-        <v>213635</v>
+        <v>217007</v>
       </c>
       <c r="F152" s="1">
-        <v>0.9841312265872377</v>
+        <v>0.9996646855057304</v>
       </c>
       <c r="G152">
-        <v>1722.580683320142</v>
+        <v>1722.58068332</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3918,13 +3918,13 @@
         <v>8</v>
       </c>
       <c r="D153">
-        <v>1722</v>
+        <v>72</v>
       </c>
       <c r="E153">
-        <v>215357</v>
+        <v>217079</v>
       </c>
       <c r="F153" s="1">
-        <v>0.9920637936861832</v>
+        <v>0.9999963607851288</v>
       </c>
       <c r="G153">
         <v>1722.58068332</v>
@@ -3941,7 +3941,7 @@
         <v>8</v>
       </c>
       <c r="D154">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="E154">
         <v>217079</v>
@@ -4608,7 +4608,7 @@
         <v>9</v>
       </c>
       <c r="D183">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E183">
         <v>217079</v>
@@ -6172,13 +6172,13 @@
         <v>12</v>
       </c>
       <c r="D251">
-        <v>-3634.999999908693</v>
+        <v>-3635</v>
       </c>
       <c r="E251">
-        <v>195269.0000000913</v>
+        <v>195269</v>
       </c>
       <c r="F251" s="1">
-        <v>0.8995263907344451</v>
+        <v>0.8995263907340245</v>
       </c>
       <c r="G251">
         <v>-3635.322</v>
@@ -6198,10 +6198,10 @@
         <v>-3635</v>
       </c>
       <c r="E252">
-        <v>191634.0000000913</v>
+        <v>191634</v>
       </c>
       <c r="F252" s="1">
-        <v>0.8827813957259277</v>
+        <v>0.8827813957255072</v>
       </c>
       <c r="G252">
         <v>-3635.322</v>
@@ -6221,10 +6221,10 @@
         <v>-3635</v>
       </c>
       <c r="E253">
-        <v>187999.0000000913</v>
+        <v>187999</v>
       </c>
       <c r="F253" s="1">
-        <v>0.8660364007174104</v>
+        <v>0.8660364007169898</v>
       </c>
       <c r="G253">
         <v>-3635.322</v>
@@ -6244,10 +6244,10 @@
         <v>-3635</v>
       </c>
       <c r="E254">
-        <v>184364.0000000913</v>
+        <v>184364</v>
       </c>
       <c r="F254" s="1">
-        <v>0.8492914057088929</v>
+        <v>0.8492914057084724</v>
       </c>
       <c r="G254">
         <v>-3635.322</v>
@@ -6267,10 +6267,10 @@
         <v>-3635</v>
       </c>
       <c r="E255">
-        <v>180729.0000000913</v>
+        <v>180729</v>
       </c>
       <c r="F255" s="1">
-        <v>0.8325464107003756</v>
+        <v>0.8325464106999551</v>
       </c>
       <c r="G255">
         <v>-3635.322</v>
@@ -6290,10 +6290,10 @@
         <v>-3635</v>
       </c>
       <c r="E256">
-        <v>177094.0000000913</v>
+        <v>177094</v>
       </c>
       <c r="F256" s="1">
-        <v>0.8158014156918583</v>
+        <v>0.8158014156914377</v>
       </c>
       <c r="G256">
         <v>-3635.322</v>
@@ -6313,10 +6313,10 @@
         <v>-3635</v>
       </c>
       <c r="E257">
-        <v>173459.0000000913</v>
+        <v>173459</v>
       </c>
       <c r="F257" s="1">
-        <v>0.7990564206833408</v>
+        <v>0.7990564206829203</v>
       </c>
       <c r="G257">
         <v>-3635.322</v>
@@ -6336,10 +6336,10 @@
         <v>-3635</v>
       </c>
       <c r="E258">
-        <v>169824.0000000913</v>
+        <v>169824</v>
       </c>
       <c r="F258" s="1">
-        <v>0.7823114256748235</v>
+        <v>0.7823114256744029</v>
       </c>
       <c r="G258">
         <v>-3635.322</v>
@@ -6359,10 +6359,10 @@
         <v>-3635</v>
       </c>
       <c r="E259">
-        <v>166189.0000000913</v>
+        <v>166189</v>
       </c>
       <c r="F259" s="1">
-        <v>0.7655664306663061</v>
+        <v>0.7655664306658856</v>
       </c>
       <c r="G259">
         <v>-3635.322</v>
@@ -6382,10 +6382,10 @@
         <v>-3635</v>
       </c>
       <c r="E260">
-        <v>162554.0000000913</v>
+        <v>162554</v>
       </c>
       <c r="F260" s="1">
-        <v>0.7488214356577887</v>
+        <v>0.7488214356573683</v>
       </c>
       <c r="G260">
         <v>-3635.322</v>
@@ -6402,13 +6402,13 @@
         <v>12</v>
       </c>
       <c r="D261">
-        <v>-3635</v>
+        <v>-3635.000000043614</v>
       </c>
       <c r="E261">
-        <v>158919.0000000913</v>
+        <v>158918.9999999564</v>
       </c>
       <c r="F261" s="1">
-        <v>0.7320764406492714</v>
+        <v>0.73207644064865</v>
       </c>
       <c r="G261">
         <v>-3635.322</v>
@@ -6428,10 +6428,10 @@
         <v>-3635</v>
       </c>
       <c r="E262">
-        <v>155284.0000000913</v>
+        <v>155283.9999999564</v>
       </c>
       <c r="F262" s="1">
-        <v>0.715331445640754</v>
+        <v>0.7153314456401326</v>
       </c>
       <c r="G262">
         <v>-3635.322</v>
@@ -6451,10 +6451,10 @@
         <v>-3635</v>
       </c>
       <c r="E263">
-        <v>151649.0000000913</v>
+        <v>151648.9999999564</v>
       </c>
       <c r="F263" s="1">
-        <v>0.6985864506322366</v>
+        <v>0.6985864506316152</v>
       </c>
       <c r="G263">
         <v>-3635.322</v>
@@ -6474,10 +6474,10 @@
         <v>-3635</v>
       </c>
       <c r="E264">
-        <v>148014.0000000913</v>
+        <v>148013.9999999564</v>
       </c>
       <c r="F264" s="1">
-        <v>0.6818414556237192</v>
+        <v>0.6818414556230978</v>
       </c>
       <c r="G264">
         <v>-3635.322</v>
@@ -6497,10 +6497,10 @@
         <v>-3635</v>
       </c>
       <c r="E265">
-        <v>144379.0000000913</v>
+        <v>144378.9999999564</v>
       </c>
       <c r="F265" s="1">
-        <v>0.6650964606152019</v>
+        <v>0.6650964606145805</v>
       </c>
       <c r="G265">
         <v>-3635.322</v>
@@ -6520,10 +6520,10 @@
         <v>-3635</v>
       </c>
       <c r="E266">
-        <v>140744.0000000913</v>
+        <v>140743.9999999564</v>
       </c>
       <c r="F266" s="1">
-        <v>0.6483514656066846</v>
+        <v>0.648351465606063</v>
       </c>
       <c r="G266">
         <v>-3635.322</v>
@@ -6543,10 +6543,10 @@
         <v>-3635</v>
       </c>
       <c r="E267">
-        <v>137109.0000000913</v>
+        <v>137108.9999999564</v>
       </c>
       <c r="F267" s="1">
-        <v>0.6316064705981671</v>
+        <v>0.6316064705975457</v>
       </c>
       <c r="G267">
         <v>-3635.322</v>
@@ -6566,10 +6566,10 @@
         <v>-3635</v>
       </c>
       <c r="E268">
-        <v>133474.0000000913</v>
+        <v>133473.9999999564</v>
       </c>
       <c r="F268" s="1">
-        <v>0.6148614755896498</v>
+        <v>0.6148614755890284</v>
       </c>
       <c r="G268">
         <v>-3635.322</v>
@@ -6589,10 +6589,10 @@
         <v>-3635</v>
       </c>
       <c r="E269">
-        <v>129839.0000000913</v>
+        <v>129838.9999999564</v>
       </c>
       <c r="F269" s="1">
-        <v>0.5981164805811324</v>
+        <v>0.5981164805805109</v>
       </c>
       <c r="G269">
         <v>-3635.322</v>
@@ -6612,10 +6612,10 @@
         <v>-3635</v>
       </c>
       <c r="E270">
-        <v>126204.0000000913</v>
+        <v>126203.9999999564</v>
       </c>
       <c r="F270" s="1">
-        <v>0.5813714855726151</v>
+        <v>0.5813714855719935</v>
       </c>
       <c r="G270">
         <v>-3635.322</v>
@@ -6635,10 +6635,10 @@
         <v>-3635</v>
       </c>
       <c r="E271">
-        <v>122569.0000000913</v>
+        <v>122568.9999999564</v>
       </c>
       <c r="F271" s="1">
-        <v>0.5646264905640976</v>
+        <v>0.5646264905634761</v>
       </c>
       <c r="G271">
         <v>-3635.322</v>
@@ -6658,10 +6658,10 @@
         <v>-3635</v>
       </c>
       <c r="E272">
-        <v>118934.0000000913</v>
+        <v>118933.9999999564</v>
       </c>
       <c r="F272" s="1">
-        <v>0.5478814955555803</v>
+        <v>0.5478814955549588</v>
       </c>
       <c r="G272">
         <v>-3635.322</v>
@@ -6678,13 +6678,13 @@
         <v>12</v>
       </c>
       <c r="D273">
-        <v>-3635</v>
+        <v>-3150</v>
       </c>
       <c r="E273">
-        <v>115299.0000000913</v>
+        <v>115783.9999999564</v>
       </c>
       <c r="F273" s="1">
-        <v>0.531136500547063</v>
+        <v>0.533370702081278</v>
       </c>
       <c r="G273">
         <v>-3635.322</v>
@@ -6704,10 +6704,10 @@
         <v>-3635</v>
       </c>
       <c r="E274">
-        <v>111664.0000000913</v>
+        <v>112148.9999999564</v>
       </c>
       <c r="F274" s="1">
-        <v>0.5143915055385456</v>
+        <v>0.5166257070727606</v>
       </c>
       <c r="G274">
         <v>-3635.322</v>
@@ -6724,13 +6724,13 @@
         <v>12</v>
       </c>
       <c r="D275">
-        <v>-3150.000000091307</v>
+        <v>-3635</v>
       </c>
       <c r="E275">
-        <v>108514</v>
+        <v>108513.9999999564</v>
       </c>
       <c r="F275" s="1">
-        <v>0.4998807120644441</v>
+        <v>0.4998807120642432</v>
       </c>
       <c r="G275">
         <v>-3635.322</v>
@@ -6750,10 +6750,10 @@
         <v>-3635</v>
       </c>
       <c r="E276">
-        <v>104879</v>
+        <v>104878.9999999564</v>
       </c>
       <c r="F276" s="1">
-        <v>0.4831357170559267</v>
+        <v>0.4831357170557258</v>
       </c>
       <c r="G276">
         <v>-3635.322</v>
@@ -6773,10 +6773,10 @@
         <v>-3635</v>
       </c>
       <c r="E277">
-        <v>101244</v>
+        <v>101243.9999999564</v>
       </c>
       <c r="F277" s="1">
-        <v>0.4663907220474094</v>
+        <v>0.4663907220472085</v>
       </c>
       <c r="G277">
         <v>-3635.322</v>
@@ -6796,10 +6796,10 @@
         <v>-3635</v>
       </c>
       <c r="E278">
-        <v>97609</v>
+        <v>97608.99999995639</v>
       </c>
       <c r="F278" s="1">
-        <v>0.449645727038892</v>
+        <v>0.4496457270386911</v>
       </c>
       <c r="G278">
         <v>-3635.322</v>
@@ -6819,10 +6819,10 @@
         <v>-3635</v>
       </c>
       <c r="E279">
-        <v>93974</v>
+        <v>93973.99999995639</v>
       </c>
       <c r="F279" s="1">
-        <v>0.4329007320303746</v>
+        <v>0.4329007320301737</v>
       </c>
       <c r="G279">
         <v>-3635.322</v>
@@ -6842,10 +6842,10 @@
         <v>-3635</v>
       </c>
       <c r="E280">
-        <v>90339</v>
+        <v>90338.99999995639</v>
       </c>
       <c r="F280" s="1">
-        <v>0.4161557370218573</v>
+        <v>0.4161557370216564</v>
       </c>
       <c r="G280">
         <v>-3635.322</v>
@@ -6865,10 +6865,10 @@
         <v>-3635</v>
       </c>
       <c r="E281">
-        <v>86704</v>
+        <v>86703.99999995639</v>
       </c>
       <c r="F281" s="1">
-        <v>0.3994107420133399</v>
+        <v>0.399410742013139</v>
       </c>
       <c r="G281">
         <v>-3635.322</v>
@@ -6888,10 +6888,10 @@
         <v>-3635</v>
       </c>
       <c r="E282">
-        <v>83069</v>
+        <v>83068.99999995639</v>
       </c>
       <c r="F282" s="1">
-        <v>0.3826657470048225</v>
+        <v>0.3826657470046216</v>
       </c>
       <c r="G282">
         <v>-3635.322</v>
@@ -6911,10 +6911,10 @@
         <v>-3635</v>
       </c>
       <c r="E283">
-        <v>79434</v>
+        <v>79433.99999995639</v>
       </c>
       <c r="F283" s="1">
-        <v>0.3659207519963051</v>
+        <v>0.3659207519961042</v>
       </c>
       <c r="G283">
         <v>-3635.322</v>
@@ -6934,10 +6934,10 @@
         <v>-3635</v>
       </c>
       <c r="E284">
-        <v>75799</v>
+        <v>75798.99999995639</v>
       </c>
       <c r="F284" s="1">
-        <v>0.3491757569877877</v>
+        <v>0.3491757569875868</v>
       </c>
       <c r="G284">
         <v>-3635.322</v>
@@ -6957,10 +6957,10 @@
         <v>-3635</v>
       </c>
       <c r="E285">
-        <v>72164</v>
+        <v>72163.99999995639</v>
       </c>
       <c r="F285" s="1">
-        <v>0.3324307619792704</v>
+        <v>0.3324307619790695</v>
       </c>
       <c r="G285">
         <v>-3635.322</v>
@@ -6980,10 +6980,10 @@
         <v>-3635</v>
       </c>
       <c r="E286">
-        <v>68529</v>
+        <v>68528.99999995639</v>
       </c>
       <c r="F286" s="1">
-        <v>0.315685766970753</v>
+        <v>0.3156857669705521</v>
       </c>
       <c r="G286">
         <v>-3635.322</v>
@@ -7003,10 +7003,10 @@
         <v>-3635</v>
       </c>
       <c r="E287">
-        <v>64894</v>
+        <v>64893.99999995639</v>
       </c>
       <c r="F287" s="1">
-        <v>0.2989407719622356</v>
+        <v>0.2989407719620347</v>
       </c>
       <c r="G287">
         <v>-3635.322</v>
@@ -7026,10 +7026,10 @@
         <v>-3635</v>
       </c>
       <c r="E288">
-        <v>61259</v>
+        <v>61258.99999995639</v>
       </c>
       <c r="F288" s="1">
-        <v>0.2821957769537182</v>
+        <v>0.2821957769535173</v>
       </c>
       <c r="G288">
         <v>-3635.322</v>
@@ -7049,10 +7049,10 @@
         <v>-3635</v>
       </c>
       <c r="E289">
-        <v>57624</v>
+        <v>57623.99999995639</v>
       </c>
       <c r="F289" s="1">
-        <v>0.2654507819452009</v>
+        <v>0.265450781945</v>
       </c>
       <c r="G289">
         <v>-3635.322</v>
@@ -7072,10 +7072,10 @@
         <v>-3635</v>
       </c>
       <c r="E290">
-        <v>53989</v>
+        <v>53988.99999995639</v>
       </c>
       <c r="F290" s="1">
-        <v>0.2487057869366835</v>
+        <v>0.2487057869364826</v>
       </c>
       <c r="G290">
         <v>-3635.322</v>
@@ -7095,10 +7095,10 @@
         <v>-3635</v>
       </c>
       <c r="E291">
-        <v>50354</v>
+        <v>50353.99999995639</v>
       </c>
       <c r="F291" s="1">
-        <v>0.2319607919281661</v>
+        <v>0.2319607919279652</v>
       </c>
       <c r="G291">
         <v>-3635.322</v>
@@ -7118,10 +7118,10 @@
         <v>-3469</v>
       </c>
       <c r="E292">
-        <v>46885</v>
+        <v>46884.99999995639</v>
       </c>
       <c r="F292" s="1">
-        <v>0.2159804927027062</v>
+        <v>0.2159804927025053</v>
       </c>
       <c r="G292">
         <v>-3469.58767002</v>
@@ -7138,16 +7138,16 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>-3469</v>
+        <v>-3468.999999991574</v>
       </c>
       <c r="E293">
-        <v>43416</v>
+        <v>43415.99999996481</v>
       </c>
       <c r="F293" s="1">
-        <v>0.2000001934772463</v>
+        <v>0.2000001934770842</v>
       </c>
       <c r="G293">
-        <v>-3469.58767002</v>
+        <v>-3469.587670011568</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7164,10 +7164,10 @@
         <v>-3055</v>
       </c>
       <c r="E294">
-        <v>40361</v>
+        <v>40360.99999996481</v>
       </c>
       <c r="F294" s="1">
-        <v>0.1859270271083273</v>
+        <v>0.1859270271081652</v>
       </c>
       <c r="G294">
         <v>-3055.27002168</v>
@@ -7187,10 +7187,10 @@
         <v>-3055</v>
       </c>
       <c r="E295">
-        <v>37306</v>
+        <v>37305.99999996481</v>
       </c>
       <c r="F295" s="1">
-        <v>0.1718538607394083</v>
+        <v>0.1718538607392462</v>
       </c>
       <c r="G295">
         <v>-3055.27002168</v>
@@ -7210,10 +7210,10 @@
         <v>-2806</v>
       </c>
       <c r="E296">
-        <v>34500</v>
+        <v>34499.99999996481</v>
       </c>
       <c r="F296" s="1">
-        <v>0.1589277380450755</v>
+        <v>0.1589277380449134</v>
       </c>
       <c r="G296">
         <v>-2806.686703320001</v>
@@ -7233,10 +7233,10 @@
         <v>-2806</v>
       </c>
       <c r="E297">
-        <v>31694</v>
+        <v>31693.99999996481</v>
       </c>
       <c r="F297" s="1">
-        <v>0.1460016153507427</v>
+        <v>0.1460016153505806</v>
       </c>
       <c r="G297">
         <v>-2806.686703320001</v>
@@ -7256,10 +7256,10 @@
         <v>-2806</v>
       </c>
       <c r="E298">
-        <v>28888</v>
+        <v>28887.99999996481</v>
       </c>
       <c r="F298" s="1">
-        <v>0.1330754926564099</v>
+        <v>0.1330754926562478</v>
       </c>
       <c r="G298">
         <v>-2806.686703320001</v>
@@ -7279,10 +7279,10 @@
         <v>-2806</v>
       </c>
       <c r="E299">
-        <v>26082</v>
+        <v>26081.99999996481</v>
       </c>
       <c r="F299" s="1">
-        <v>0.1201493699620771</v>
+        <v>0.120149369961915</v>
       </c>
       <c r="G299">
         <v>-2806.686703320001</v>
@@ -7302,10 +7302,10 @@
         <v>-2475</v>
       </c>
       <c r="E300">
-        <v>23607</v>
+        <v>23606.99999996481</v>
       </c>
       <c r="F300" s="1">
-        <v>0.1087480322327564</v>
+        <v>0.1087480322325943</v>
       </c>
       <c r="G300">
         <v>-2475.25439658</v>
@@ -7325,10 +7325,10 @@
         <v>-2475</v>
       </c>
       <c r="E301">
-        <v>21132</v>
+        <v>21131.99999996481</v>
       </c>
       <c r="F301" s="1">
-        <v>0.0973466945034358</v>
+        <v>0.0973466945032737</v>
       </c>
       <c r="G301">
         <v>-2475.25439658</v>
@@ -7348,10 +7348,10 @@
         <v>-2475</v>
       </c>
       <c r="E302">
-        <v>18657</v>
+        <v>18656.99999996481</v>
       </c>
       <c r="F302" s="1">
-        <v>0.08594535677411518</v>
+        <v>0.08594535677395307</v>
       </c>
       <c r="G302">
         <v>-2475.25439658</v>
@@ -7371,10 +7371,10 @@
         <v>-2143</v>
       </c>
       <c r="E303">
-        <v>16514</v>
+        <v>16513.99999996481</v>
       </c>
       <c r="F303" s="1">
-        <v>0.07607341061090947</v>
+        <v>0.07607341061074736</v>
       </c>
       <c r="G303">
         <v>-2143.78573662</v>
@@ -7394,10 +7394,10 @@
         <v>-2143</v>
       </c>
       <c r="E304">
-        <v>14371</v>
+        <v>14370.99999996481</v>
       </c>
       <c r="F304" s="1">
-        <v>0.06620146444770376</v>
+        <v>0.06620146444754167</v>
       </c>
       <c r="G304">
         <v>-2143.78573662</v>
@@ -7417,10 +7417,10 @@
         <v>-2143</v>
       </c>
       <c r="E305">
-        <v>12228</v>
+        <v>12227.99999996481</v>
       </c>
       <c r="F305" s="1">
-        <v>0.05632951828449806</v>
+        <v>0.05632951828433597</v>
       </c>
       <c r="G305">
         <v>-2143.78573662</v>
@@ -7440,10 +7440,10 @@
         <v>-2143</v>
       </c>
       <c r="E306">
-        <v>10085</v>
+        <v>10084.99999996481</v>
       </c>
       <c r="F306" s="1">
-        <v>0.04645757212129236</v>
+        <v>0.04645757212113026</v>
       </c>
       <c r="G306">
         <v>-2143.78573662</v>
@@ -7463,10 +7463,10 @@
         <v>-1812</v>
       </c>
       <c r="E307">
-        <v>8273</v>
+        <v>8272.999999964812</v>
       </c>
       <c r="F307" s="1">
-        <v>0.03811041092309883</v>
+        <v>0.03811041092293673</v>
       </c>
       <c r="G307">
         <v>-1812.35342988</v>
@@ -7483,16 +7483,16 @@
         <v>2</v>
       </c>
       <c r="D308">
-        <v>0</v>
+        <v>-1811.999999964812</v>
       </c>
       <c r="E308">
-        <v>8273</v>
+        <v>6461</v>
       </c>
       <c r="F308" s="1">
-        <v>0.03811041092309883</v>
+        <v>0.0297632497249053</v>
       </c>
       <c r="G308">
-        <v>-1812.35342988</v>
+        <v>-1812.353429844766</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7509,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="E309">
-        <v>8273</v>
+        <v>6461</v>
       </c>
       <c r="F309" s="1">
-        <v>0.03811041092309883</v>
+        <v>0.0297632497249053</v>
       </c>
       <c r="G309">
         <v>-1812.35342988</v>
@@ -7532,10 +7532,10 @@
         <v>-1812</v>
       </c>
       <c r="E310">
-        <v>6461</v>
+        <v>4649</v>
       </c>
       <c r="F310" s="1">
-        <v>0.0297632497249053</v>
+        <v>0.02141608852671177</v>
       </c>
       <c r="G310">
         <v>-1812.35342988</v>
@@ -7555,10 +7555,10 @@
         <v>-1812</v>
       </c>
       <c r="E311">
-        <v>4649</v>
+        <v>2837</v>
       </c>
       <c r="F311" s="1">
-        <v>0.02141608852671177</v>
+        <v>0.01306892732851824</v>
       </c>
       <c r="G311">
         <v>-1812.35342988</v>
@@ -7575,13 +7575,13 @@
         <v>2</v>
       </c>
       <c r="D312">
-        <v>-1812</v>
+        <v>-1025</v>
       </c>
       <c r="E312">
-        <v>2837</v>
+        <v>1812</v>
       </c>
       <c r="F312" s="1">
-        <v>0.01306892732851824</v>
+        <v>0.00834716119819353</v>
       </c>
       <c r="G312">
         <v>-1812.35342988</v>
@@ -7601,10 +7601,10 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>2837</v>
+        <v>1812</v>
       </c>
       <c r="F313" s="1">
-        <v>0.01306892732851824</v>
+        <v>0.00834716119819353</v>
       </c>
       <c r="G313">
         <v>-1812.35342988</v>
@@ -7624,10 +7624,10 @@
         <v>0</v>
       </c>
       <c r="E314">
-        <v>2837</v>
+        <v>1812</v>
       </c>
       <c r="F314" s="1">
-        <v>0.01306892732851824</v>
+        <v>0.00834716119819353</v>
       </c>
       <c r="G314">
         <v>-1812.35342988</v>
@@ -7644,13 +7644,13 @@
         <v>2</v>
       </c>
       <c r="D315">
-        <v>-1812</v>
+        <v>0</v>
       </c>
       <c r="E315">
-        <v>1025</v>
+        <v>1812</v>
       </c>
       <c r="F315" s="1">
-        <v>0.004721766130324706</v>
+        <v>0.00834716119819353</v>
       </c>
       <c r="G315">
         <v>-1812.35342988</v>
@@ -7670,10 +7670,10 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>1025</v>
+        <v>1812</v>
       </c>
       <c r="F316" s="1">
-        <v>0.004721766130324706</v>
+        <v>0.00834716119819353</v>
       </c>
       <c r="G316">
         <v>-1812.35342988</v>
@@ -7690,13 +7690,13 @@
         <v>2</v>
       </c>
       <c r="D317">
-        <v>0</v>
+        <v>-1812</v>
       </c>
       <c r="E317">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F317" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G317">
         <v>-1812.35342988</v>
@@ -7716,10 +7716,10 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F318" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G318">
         <v>-1812.35342988</v>
@@ -7739,10 +7739,10 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F319" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G319">
         <v>-1812.35342988</v>
@@ -7762,10 +7762,10 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F320" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G320">
         <v>-1812.35342988</v>
@@ -7785,10 +7785,10 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F321" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G321">
         <v>-1812.35342988</v>
@@ -7808,10 +7808,10 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F322" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G322">
         <v>-1812.35342988</v>
@@ -7831,10 +7831,10 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F323" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G323">
         <v>-1812.35342988</v>
@@ -7854,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F324" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G324">
         <v>-1812.35342988</v>
@@ -7877,10 +7877,10 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F325" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G325">
         <v>-1812.35342988</v>
@@ -7900,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F326" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G326">
         <v>-1812.35342988</v>
@@ -7923,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F327" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G327">
         <v>-1812.35342988</v>
@@ -7946,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F328" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G328">
         <v>-1812.35342988</v>
@@ -7969,10 +7969,10 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F329" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G329">
         <v>-1812.35342988</v>
@@ -7992,10 +7992,10 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F330" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G330">
         <v>-1812.35342988</v>
@@ -8015,10 +8015,10 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F331" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G331">
         <v>-1812.35342988</v>
@@ -8038,10 +8038,10 @@
         <v>0</v>
       </c>
       <c r="E332">
-        <v>1025</v>
+        <v>0</v>
       </c>
       <c r="F332" s="1">
-        <v>0.004721766130324706</v>
+        <v>0</v>
       </c>
       <c r="G332">
         <v>-1812.35342988</v>
@@ -8058,7 +8058,7 @@
         <v>2</v>
       </c>
       <c r="D333">
-        <v>-1025</v>
+        <v>0</v>
       </c>
       <c r="E333">
         <v>0</v>
@@ -8590,10 +8590,10 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F356" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G356">
         <v>-1812.35342988</v>
@@ -8613,10 +8613,10 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F357" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G357">
         <v>-1812.35342988</v>
@@ -8636,10 +8636,10 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F358" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G358">
         <v>-1812.35342988</v>
@@ -8659,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F359" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G359">
         <v>-1812.35342988</v>
@@ -8682,10 +8682,10 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F360" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G360">
         <v>-1812.35342988</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F361" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G361">
         <v>-1812.35342988</v>
@@ -8870,13 +8870,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8673</v>
+        <v>8673.000000013044</v>
       </c>
       <c r="D2">
-        <v>8673</v>
+        <v>8673.000000013044</v>
       </c>
       <c r="E2" s="1">
-        <v>0.03995305136420115</v>
+        <v>0.03995305136426124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8887,13 +8887,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>34120</v>
+        <v>67610.99999996826</v>
       </c>
       <c r="D3">
-        <v>42793</v>
+        <v>76283.9999999813</v>
       </c>
       <c r="E3" s="1">
-        <v>0.1971302809902294</v>
+        <v>0.3514099585225382</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8907,10 +8907,10 @@
         <v>65430</v>
       </c>
       <c r="D4">
-        <v>108223</v>
+        <v>141713.9999999813</v>
       </c>
       <c r="E4" s="1">
-        <v>0.4985401911435422</v>
+        <v>0.652819868675851</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8921,13 +8921,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>67611</v>
+        <v>64042</v>
       </c>
       <c r="D5">
-        <v>175834</v>
+        <v>205755.9999999813</v>
       </c>
       <c r="E5" s="1">
-        <v>0.8099970983019653</v>
+        <v>0.9478358164985387</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8938,7 +8938,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>41245</v>
+        <v>11323.0000000187</v>
       </c>
       <c r="D6">
         <v>217079</v>
@@ -9006,13 +9006,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-112200</v>
+        <v>-112200.0000000436</v>
       </c>
       <c r="D10">
-        <v>104879</v>
+        <v>104878.9999999564</v>
       </c>
       <c r="E10" s="1">
-        <v>0.4831357170559267</v>
+        <v>0.4831357170557258</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9023,13 +9023,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>-96606</v>
+        <v>-96605.99999999157</v>
       </c>
       <c r="D11">
-        <v>8273</v>
+        <v>8272.999999964813</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03811041092309883</v>
+        <v>0.03811041092293674</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9040,13 +9040,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-8273</v>
+        <v>-8272.999999964812</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>8.379358592275479E-18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1.818989403545856E-12</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>8.379358592275479E-18</v>
       </c>
     </row>
   </sheetData>

--- a/export/MGS_export.xlsx
+++ b/export/MGS_export.xlsx
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -615,7 +615,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -629,16 +629,16 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>1.304457284609194E-08</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.304457284609194E-08</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>6.009114365778562E-14</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -652,16 +652,16 @@
         <v>4</v>
       </c>
       <c r="D11">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2181.000000013044</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>0.01004699700517052</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -675,16 +675,16 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>4362.000000013045</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>0.02009399401028094</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -698,16 +698,16 @@
         <v>4</v>
       </c>
       <c r="D13">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>6543.000000013045</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>0.03014099101539137</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -724,13 +724,13 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6543.000000013045</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>0.03014099101539137</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6543.000000013045</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>0.03014099101539137</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -767,16 +767,16 @@
         <v>4</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2130.000000045995</v>
       </c>
       <c r="E16">
-        <v>6543.000000013045</v>
+        <v>2130.000000045995</v>
       </c>
       <c r="F16" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.009812096057407651</v>
       </c>
       <c r="G16">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -790,16 +790,16 @@
         <v>4</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E17">
-        <v>6543.000000013045</v>
+        <v>4311.000000045996</v>
       </c>
       <c r="F17" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.01985912962583205</v>
       </c>
       <c r="G17">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -813,16 +813,16 @@
         <v>4</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E18">
-        <v>6543.000000013045</v>
+        <v>6492.000000045996</v>
       </c>
       <c r="F18" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.02990616319425645</v>
       </c>
       <c r="G18">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -836,16 +836,16 @@
         <v>4</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>2181</v>
       </c>
       <c r="E19">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F19" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G19">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F20" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G20">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -885,13 +885,13 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F21" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G21">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -908,13 +908,13 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F22" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G22">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -931,13 +931,13 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F23" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G23">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -954,13 +954,13 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F24" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G24">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -977,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F25" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G25">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F26" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G26">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>6543.000000013045</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F27" s="1">
-        <v>0.03014099101539137</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G27">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1043,16 +1043,16 @@
         <v>4</v>
       </c>
       <c r="D28">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>8673.000000013044</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F28" s="1">
-        <v>0.03995305136426124</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G28">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>8673.000000013044</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F29" s="1">
-        <v>0.03995305136426124</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G29">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1092,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>8673.000000013044</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F30" s="1">
-        <v>0.03995305136426124</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G30">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>8673.000000013044</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="F31" s="1">
-        <v>0.03995305136426124</v>
+        <v>0.03995319676268085</v>
       </c>
       <c r="G31">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1138,13 +1138,13 @@
         <v>2181</v>
       </c>
       <c r="E32">
-        <v>10854.00000001304</v>
+        <v>10854.00000004599</v>
       </c>
       <c r="F32" s="1">
-        <v>0.05000004836937166</v>
+        <v>0.05000023033110524</v>
       </c>
       <c r="G32">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1161,13 +1161,13 @@
         <v>2181</v>
       </c>
       <c r="E33">
-        <v>13035.00000001304</v>
+        <v>13035.00000004599</v>
       </c>
       <c r="F33" s="1">
-        <v>0.06004704537448209</v>
+        <v>0.06004726389952964</v>
       </c>
       <c r="G33">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1181,16 +1181,16 @@
         <v>5</v>
       </c>
       <c r="D34">
-        <v>2180.999999991052</v>
+        <v>2181</v>
       </c>
       <c r="E34">
-        <v>15216.0000000041</v>
+        <v>15216.00000004599</v>
       </c>
       <c r="F34" s="1">
-        <v>0.0700940423795513</v>
+        <v>0.07009429746795404</v>
       </c>
       <c r="G34">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1207,13 +1207,13 @@
         <v>2181</v>
       </c>
       <c r="E35">
-        <v>17397.0000000041</v>
+        <v>17397.00000004599</v>
       </c>
       <c r="F35" s="1">
-        <v>0.08014103938466172</v>
+        <v>0.08014133103637844</v>
       </c>
       <c r="G35">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1230,13 +1230,13 @@
         <v>2181</v>
       </c>
       <c r="E36">
-        <v>19578.0000000041</v>
+        <v>19578.00000004599</v>
       </c>
       <c r="F36" s="1">
-        <v>0.09018803638977214</v>
+        <v>0.09018836460480284</v>
       </c>
       <c r="G36">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1253,13 +1253,13 @@
         <v>2181</v>
       </c>
       <c r="E37">
-        <v>21759.0000000041</v>
+        <v>21759.00000004599</v>
       </c>
       <c r="F37" s="1">
-        <v>0.1002350333948826</v>
+        <v>0.1002353981732272</v>
       </c>
       <c r="G37">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1276,13 +1276,13 @@
         <v>2181</v>
       </c>
       <c r="E38">
-        <v>23940.0000000041</v>
+        <v>23940.00000004599</v>
       </c>
       <c r="F38" s="1">
-        <v>0.110282030399993</v>
+        <v>0.1102824317416516</v>
       </c>
       <c r="G38">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1299,13 +1299,13 @@
         <v>2181</v>
       </c>
       <c r="E39">
-        <v>26121.0000000041</v>
+        <v>26121.00000004599</v>
       </c>
       <c r="F39" s="1">
-        <v>0.1203290274051034</v>
+        <v>0.120329465310076</v>
       </c>
       <c r="G39">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1319,16 +1319,16 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>2180.999999999978</v>
+        <v>2181</v>
       </c>
       <c r="E40">
-        <v>28302.00000000407</v>
+        <v>28302.00000004599</v>
       </c>
       <c r="F40" s="1">
-        <v>0.1303760244102137</v>
+        <v>0.1303764988785004</v>
       </c>
       <c r="G40">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1342,16 +1342,16 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>2180.999999995409</v>
+        <v>2181</v>
       </c>
       <c r="E41">
-        <v>30482.99999999948</v>
+        <v>30483.00000004599</v>
       </c>
       <c r="F41" s="1">
-        <v>0.140423021415303</v>
+        <v>0.1404235324469248</v>
       </c>
       <c r="G41">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1368,13 +1368,13 @@
         <v>2181</v>
       </c>
       <c r="E42">
-        <v>32663.99999999948</v>
+        <v>32664.00000004599</v>
       </c>
       <c r="F42" s="1">
-        <v>0.1504700184204134</v>
+        <v>0.1504705660153492</v>
       </c>
       <c r="G42">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1391,13 +1391,13 @@
         <v>2181</v>
       </c>
       <c r="E43">
-        <v>34844.99999999948</v>
+        <v>34845.000000046</v>
       </c>
       <c r="F43" s="1">
-        <v>0.1605170154255239</v>
+        <v>0.1605175995837737</v>
       </c>
       <c r="G43">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1414,13 +1414,13 @@
         <v>2181</v>
       </c>
       <c r="E44">
-        <v>37025.99999999948</v>
+        <v>37026.000000046</v>
       </c>
       <c r="F44" s="1">
-        <v>0.1705640124306343</v>
+        <v>0.1705646331521981</v>
       </c>
       <c r="G44">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1437,13 +1437,13 @@
         <v>2181</v>
       </c>
       <c r="E45">
-        <v>39206.99999999948</v>
+        <v>39207.000000046</v>
       </c>
       <c r="F45" s="1">
-        <v>0.1806110094357447</v>
+        <v>0.1806116667206224</v>
       </c>
       <c r="G45">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1460,13 +1460,13 @@
         <v>2181</v>
       </c>
       <c r="E46">
-        <v>41387.99999999948</v>
+        <v>41388.000000046</v>
       </c>
       <c r="F46" s="1">
-        <v>0.1906580064408551</v>
+        <v>0.1906587002890468</v>
       </c>
       <c r="G46">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1483,13 +1483,13 @@
         <v>2181</v>
       </c>
       <c r="E47">
-        <v>43568.99999999948</v>
+        <v>43569.000000046</v>
       </c>
       <c r="F47" s="1">
-        <v>0.2007050034459656</v>
+        <v>0.2007057338574712</v>
       </c>
       <c r="G47">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1506,13 +1506,13 @@
         <v>2181</v>
       </c>
       <c r="E48">
-        <v>45749.99999999948</v>
+        <v>45750.000000046</v>
       </c>
       <c r="F48" s="1">
-        <v>0.210752000451076</v>
+        <v>0.2107527674258956</v>
       </c>
       <c r="G48">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1529,13 +1529,13 @@
         <v>2181</v>
       </c>
       <c r="E49">
-        <v>47930.99999999948</v>
+        <v>47931.000000046</v>
       </c>
       <c r="F49" s="1">
-        <v>0.2207989974561864</v>
+        <v>0.22079980099432</v>
       </c>
       <c r="G49">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1552,13 +1552,13 @@
         <v>2181</v>
       </c>
       <c r="E50">
-        <v>50111.99999999948</v>
+        <v>50112.000000046</v>
       </c>
       <c r="F50" s="1">
-        <v>0.2308459944612968</v>
+        <v>0.2308468345627444</v>
       </c>
       <c r="G50">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1572,16 +1572,16 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>2180.999999996677</v>
+        <v>2181</v>
       </c>
       <c r="E51">
-        <v>52292.99999999616</v>
+        <v>52293.000000046</v>
       </c>
       <c r="F51" s="1">
-        <v>0.240892991466392</v>
+        <v>0.2408938681311688</v>
       </c>
       <c r="G51">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1598,13 +1598,13 @@
         <v>2181</v>
       </c>
       <c r="E52">
-        <v>54473.99999999616</v>
+        <v>54474.000000046</v>
       </c>
       <c r="F52" s="1">
-        <v>0.2509399884715024</v>
+        <v>0.2509409016995932</v>
       </c>
       <c r="G52">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1621,13 +1621,13 @@
         <v>2181</v>
       </c>
       <c r="E53">
-        <v>56654.99999999616</v>
+        <v>56655.000000046</v>
       </c>
       <c r="F53" s="1">
-        <v>0.2609869854766128</v>
+        <v>0.2609879352680176</v>
       </c>
       <c r="G53">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1644,13 +1644,13 @@
         <v>2181</v>
       </c>
       <c r="E54">
-        <v>58835.99999999616</v>
+        <v>58836.000000046</v>
       </c>
       <c r="F54" s="1">
-        <v>0.2710339824817232</v>
+        <v>0.271034968836442</v>
       </c>
       <c r="G54">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1667,13 +1667,13 @@
         <v>2181</v>
       </c>
       <c r="E55">
-        <v>61016.99999999616</v>
+        <v>61017.000000046</v>
       </c>
       <c r="F55" s="1">
-        <v>0.2810809794868336</v>
+        <v>0.2810820024048664</v>
       </c>
       <c r="G55">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1690,13 +1690,13 @@
         <v>2181</v>
       </c>
       <c r="E56">
-        <v>63197.99999999616</v>
+        <v>63198.000000046</v>
       </c>
       <c r="F56" s="1">
-        <v>0.2911279764919441</v>
+        <v>0.2911290359732908</v>
       </c>
       <c r="G56">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1713,13 +1713,13 @@
         <v>2181</v>
       </c>
       <c r="E57">
-        <v>65378.99999999616</v>
+        <v>65379.000000046</v>
       </c>
       <c r="F57" s="1">
-        <v>0.3011749734970545</v>
+        <v>0.3011760695417152</v>
       </c>
       <c r="G57">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1736,13 +1736,13 @@
         <v>2181</v>
       </c>
       <c r="E58">
-        <v>67559.99999999616</v>
+        <v>67560.000000046</v>
       </c>
       <c r="F58" s="1">
-        <v>0.3112219705021649</v>
+        <v>0.3112231031101396</v>
       </c>
       <c r="G58">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1756,16 +1756,16 @@
         <v>5</v>
       </c>
       <c r="D59">
-        <v>2181</v>
+        <v>2180.999999944326</v>
       </c>
       <c r="E59">
-        <v>69740.99999999616</v>
+        <v>69740.99999999032</v>
       </c>
       <c r="F59" s="1">
-        <v>0.3212689675072753</v>
+        <v>0.3212701366783076</v>
       </c>
       <c r="G59">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1779,16 +1779,16 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <v>2180.999999985142</v>
+        <v>2181</v>
       </c>
       <c r="E60">
-        <v>71921.9999999813</v>
+        <v>71921.99999999032</v>
       </c>
       <c r="F60" s="1">
-        <v>0.3313159645123173</v>
+        <v>0.331317170246732</v>
       </c>
       <c r="G60">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1805,13 +1805,13 @@
         <v>2181</v>
       </c>
       <c r="E61">
-        <v>74102.9999999813</v>
+        <v>74102.99999999032</v>
       </c>
       <c r="F61" s="1">
-        <v>0.3413629615174277</v>
+        <v>0.3413642038151564</v>
       </c>
       <c r="G61">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1828,13 +1828,13 @@
         <v>2181</v>
       </c>
       <c r="E62">
-        <v>76283.9999999813</v>
+        <v>76283.99999999032</v>
       </c>
       <c r="F62" s="1">
-        <v>0.3514099585225382</v>
+        <v>0.3514112373835807</v>
       </c>
       <c r="G62">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1851,13 +1851,13 @@
         <v>2181</v>
       </c>
       <c r="E63">
-        <v>78464.9999999813</v>
+        <v>78464.99999999032</v>
       </c>
       <c r="F63" s="1">
-        <v>0.3614569555276486</v>
+        <v>0.3614582709520051</v>
       </c>
       <c r="G63">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1874,13 +1874,13 @@
         <v>2181</v>
       </c>
       <c r="E64">
-        <v>80645.9999999813</v>
+        <v>80645.99999999032</v>
       </c>
       <c r="F64" s="1">
-        <v>0.371503952532759</v>
+        <v>0.3715053045204295</v>
       </c>
       <c r="G64">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1897,13 +1897,13 @@
         <v>2181</v>
       </c>
       <c r="E65">
-        <v>82826.9999999813</v>
+        <v>82826.99999999032</v>
       </c>
       <c r="F65" s="1">
-        <v>0.3815509495378694</v>
+        <v>0.3815523380888539</v>
       </c>
       <c r="G65">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1920,13 +1920,13 @@
         <v>2181</v>
       </c>
       <c r="E66">
-        <v>85007.9999999813</v>
+        <v>85007.99999999032</v>
       </c>
       <c r="F66" s="1">
-        <v>0.3915979465429799</v>
+        <v>0.3915993716572783</v>
       </c>
       <c r="G66">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1943,13 +1943,13 @@
         <v>2181</v>
       </c>
       <c r="E67">
-        <v>87188.9999999813</v>
+        <v>87188.99999999032</v>
       </c>
       <c r="F67" s="1">
-        <v>0.4016449435480903</v>
+        <v>0.4016464052257027</v>
       </c>
       <c r="G67">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1966,13 +1966,13 @@
         <v>2181</v>
       </c>
       <c r="E68">
-        <v>89369.9999999813</v>
+        <v>89369.99999999032</v>
       </c>
       <c r="F68" s="1">
-        <v>0.4116919405532007</v>
+        <v>0.4116934387941271</v>
       </c>
       <c r="G68">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1989,13 +1989,13 @@
         <v>2181</v>
       </c>
       <c r="E69">
-        <v>91550.9999999813</v>
+        <v>91550.99999999032</v>
       </c>
       <c r="F69" s="1">
-        <v>0.4217389375583112</v>
+        <v>0.4217404723625515</v>
       </c>
       <c r="G69">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2012,13 +2012,13 @@
         <v>2181</v>
       </c>
       <c r="E70">
-        <v>93731.9999999813</v>
+        <v>93731.99999999032</v>
       </c>
       <c r="F70" s="1">
-        <v>0.4317859345634216</v>
+        <v>0.4317875059309759</v>
       </c>
       <c r="G70">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2035,13 +2035,13 @@
         <v>2181</v>
       </c>
       <c r="E71">
-        <v>95912.9999999813</v>
+        <v>95912.99999999032</v>
       </c>
       <c r="F71" s="1">
-        <v>0.441832931568532</v>
+        <v>0.4418345394994003</v>
       </c>
       <c r="G71">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2058,13 +2058,13 @@
         <v>2181</v>
       </c>
       <c r="E72">
-        <v>98093.9999999813</v>
+        <v>98093.99999999032</v>
       </c>
       <c r="F72" s="1">
-        <v>0.4518799285736424</v>
+        <v>0.4518815730678247</v>
       </c>
       <c r="G72">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2081,13 +2081,13 @@
         <v>2181</v>
       </c>
       <c r="E73">
-        <v>100274.9999999813</v>
+        <v>100274.9999999903</v>
       </c>
       <c r="F73" s="1">
-        <v>0.4619269255787529</v>
+        <v>0.4619286066362491</v>
       </c>
       <c r="G73">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2104,13 +2104,13 @@
         <v>2181</v>
       </c>
       <c r="E74">
-        <v>102455.9999999813</v>
+        <v>102455.9999999903</v>
       </c>
       <c r="F74" s="1">
-        <v>0.4719739225838633</v>
+        <v>0.4719756402046735</v>
       </c>
       <c r="G74">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2127,13 +2127,13 @@
         <v>2181</v>
       </c>
       <c r="E75">
-        <v>104636.9999999813</v>
+        <v>104636.9999999903</v>
       </c>
       <c r="F75" s="1">
-        <v>0.4820209195889737</v>
+        <v>0.4820226737730979</v>
       </c>
       <c r="G75">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2150,13 +2150,13 @@
         <v>2181</v>
       </c>
       <c r="E76">
-        <v>106817.9999999813</v>
+        <v>106817.9999999903</v>
       </c>
       <c r="F76" s="1">
-        <v>0.4920679165940841</v>
+        <v>0.4920697073415223</v>
       </c>
       <c r="G76">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2173,13 +2173,13 @@
         <v>2181</v>
       </c>
       <c r="E77">
-        <v>108998.9999999813</v>
+        <v>108998.9999999903</v>
       </c>
       <c r="F77" s="1">
-        <v>0.5021149135991946</v>
+        <v>0.5021167409099467</v>
       </c>
       <c r="G77">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2196,13 +2196,13 @@
         <v>2181</v>
       </c>
       <c r="E78">
-        <v>111179.9999999813</v>
+        <v>111179.9999999903</v>
       </c>
       <c r="F78" s="1">
-        <v>0.512161910604305</v>
+        <v>0.5121637744783711</v>
       </c>
       <c r="G78">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2219,13 +2219,13 @@
         <v>2181</v>
       </c>
       <c r="E79">
-        <v>113360.9999999813</v>
+        <v>113360.9999999903</v>
       </c>
       <c r="F79" s="1">
-        <v>0.5222089076094155</v>
+        <v>0.5222108080467955</v>
       </c>
       <c r="G79">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2242,13 +2242,13 @@
         <v>2181</v>
       </c>
       <c r="E80">
-        <v>115541.9999999813</v>
+        <v>115541.9999999903</v>
       </c>
       <c r="F80" s="1">
-        <v>0.5322559046145259</v>
+        <v>0.5322578416152199</v>
       </c>
       <c r="G80">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2265,13 +2265,13 @@
         <v>2181</v>
       </c>
       <c r="E81">
-        <v>117722.9999999813</v>
+        <v>117722.9999999903</v>
       </c>
       <c r="F81" s="1">
-        <v>0.5423029016196363</v>
+        <v>0.5423048751836442</v>
       </c>
       <c r="G81">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2288,13 +2288,13 @@
         <v>2181</v>
       </c>
       <c r="E82">
-        <v>119903.9999999813</v>
+        <v>119903.9999999903</v>
       </c>
       <c r="F82" s="1">
-        <v>0.5523498986247467</v>
+        <v>0.5523519087520686</v>
       </c>
       <c r="G82">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2311,13 +2311,13 @@
         <v>2181</v>
       </c>
       <c r="E83">
-        <v>122084.9999999813</v>
+        <v>122084.9999999903</v>
       </c>
       <c r="F83" s="1">
-        <v>0.5623968956298572</v>
+        <v>0.562398942320493</v>
       </c>
       <c r="G83">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2334,13 +2334,13 @@
         <v>2181</v>
       </c>
       <c r="E84">
-        <v>124265.9999999813</v>
+        <v>124265.9999999903</v>
       </c>
       <c r="F84" s="1">
-        <v>0.5724438926349675</v>
+        <v>0.5724459758889174</v>
       </c>
       <c r="G84">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2357,13 +2357,13 @@
         <v>2181</v>
       </c>
       <c r="E85">
-        <v>126446.9999999813</v>
+        <v>126446.9999999903</v>
       </c>
       <c r="F85" s="1">
-        <v>0.582490889640078</v>
+        <v>0.5824930094573418</v>
       </c>
       <c r="G85">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2380,13 +2380,13 @@
         <v>2181</v>
       </c>
       <c r="E86">
-        <v>128627.9999999813</v>
+        <v>128627.9999999903</v>
       </c>
       <c r="F86" s="1">
-        <v>0.5925378866451885</v>
+        <v>0.5925400430257662</v>
       </c>
       <c r="G86">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2403,13 +2403,13 @@
         <v>2181</v>
       </c>
       <c r="E87">
-        <v>130808.9999999813</v>
+        <v>130808.9999999903</v>
       </c>
       <c r="F87" s="1">
-        <v>0.6025848836502988</v>
+        <v>0.6025870765941906</v>
       </c>
       <c r="G87">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2426,13 +2426,13 @@
         <v>2181</v>
       </c>
       <c r="E88">
-        <v>132989.9999999813</v>
+        <v>132989.9999999903</v>
       </c>
       <c r="F88" s="1">
-        <v>0.6126318806554093</v>
+        <v>0.612634110162615</v>
       </c>
       <c r="G88">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2449,13 +2449,13 @@
         <v>2181</v>
       </c>
       <c r="E89">
-        <v>135170.9999999813</v>
+        <v>135170.9999999903</v>
       </c>
       <c r="F89" s="1">
-        <v>0.6226788776605197</v>
+        <v>0.6226811437310394</v>
       </c>
       <c r="G89">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2472,13 +2472,13 @@
         <v>2181</v>
       </c>
       <c r="E90">
-        <v>137351.9999999813</v>
+        <v>137351.9999999903</v>
       </c>
       <c r="F90" s="1">
-        <v>0.6327258746656301</v>
+        <v>0.6327281772994638</v>
       </c>
       <c r="G90">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2495,13 +2495,13 @@
         <v>2181</v>
       </c>
       <c r="E91">
-        <v>139532.9999999813</v>
+        <v>139532.9999999903</v>
       </c>
       <c r="F91" s="1">
-        <v>0.6427728716707406</v>
+        <v>0.6427752108678882</v>
       </c>
       <c r="G91">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2518,13 +2518,13 @@
         <v>2181</v>
       </c>
       <c r="E92">
-        <v>141713.9999999813</v>
+        <v>141713.9999999903</v>
       </c>
       <c r="F92" s="1">
-        <v>0.652819868675851</v>
+        <v>0.6528222444363126</v>
       </c>
       <c r="G92">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2541,13 +2541,13 @@
         <v>2181</v>
       </c>
       <c r="E93">
-        <v>143894.9999999813</v>
+        <v>143894.9999999903</v>
       </c>
       <c r="F93" s="1">
-        <v>0.6628668656809614</v>
+        <v>0.6628692780047371</v>
       </c>
       <c r="G93">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2564,13 +2564,13 @@
         <v>2181</v>
       </c>
       <c r="E94">
-        <v>146075.9999999813</v>
+        <v>146075.9999999903</v>
       </c>
       <c r="F94" s="1">
-        <v>0.6729138626860718</v>
+        <v>0.6729163115731615</v>
       </c>
       <c r="G94">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2587,13 +2587,13 @@
         <v>2181</v>
       </c>
       <c r="E95">
-        <v>148256.9999999813</v>
+        <v>148256.9999999903</v>
       </c>
       <c r="F95" s="1">
-        <v>0.6829608596911823</v>
+        <v>0.6829633451415859</v>
       </c>
       <c r="G95">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2610,13 +2610,13 @@
         <v>2181</v>
       </c>
       <c r="E96">
-        <v>150437.9999999813</v>
+        <v>150437.9999999903</v>
       </c>
       <c r="F96" s="1">
-        <v>0.6930078566962927</v>
+        <v>0.6930103787100103</v>
       </c>
       <c r="G96">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2633,13 +2633,13 @@
         <v>2181</v>
       </c>
       <c r="E97">
-        <v>152618.9999999813</v>
+        <v>152618.9999999903</v>
       </c>
       <c r="F97" s="1">
-        <v>0.7030548537014031</v>
+        <v>0.7030574122784347</v>
       </c>
       <c r="G97">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2656,13 +2656,13 @@
         <v>2181</v>
       </c>
       <c r="E98">
-        <v>154799.9999999813</v>
+        <v>154799.9999999903</v>
       </c>
       <c r="F98" s="1">
-        <v>0.7131018507065136</v>
+        <v>0.7131044458468591</v>
       </c>
       <c r="G98">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2676,16 +2676,16 @@
         <v>7</v>
       </c>
       <c r="D99">
-        <v>2181</v>
+        <v>2181.000000009679</v>
       </c>
       <c r="E99">
-        <v>156980.9999999813</v>
+        <v>156981</v>
       </c>
       <c r="F99" s="1">
-        <v>0.7231488477116239</v>
+        <v>0.7231514794153281</v>
       </c>
       <c r="G99">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2702,13 +2702,13 @@
         <v>2181</v>
       </c>
       <c r="E100">
-        <v>159161.9999999813</v>
+        <v>159162</v>
       </c>
       <c r="F100" s="1">
-        <v>0.7331958447167344</v>
+        <v>0.7331985129837525</v>
       </c>
       <c r="G100">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2725,13 +2725,13 @@
         <v>2181</v>
       </c>
       <c r="E101">
-        <v>161342.9999999813</v>
+        <v>161343</v>
       </c>
       <c r="F101" s="1">
-        <v>0.7432428417218448</v>
+        <v>0.7432455465521769</v>
       </c>
       <c r="G101">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2748,13 +2748,13 @@
         <v>2181</v>
       </c>
       <c r="E102">
-        <v>163523.9999999813</v>
+        <v>163524</v>
       </c>
       <c r="F102" s="1">
-        <v>0.7532898387269552</v>
+        <v>0.7532925801206013</v>
       </c>
       <c r="G102">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2771,13 +2771,13 @@
         <v>2181</v>
       </c>
       <c r="E103">
-        <v>165704.9999999813</v>
+        <v>165705</v>
       </c>
       <c r="F103" s="1">
-        <v>0.7633368357320657</v>
+        <v>0.7633396136890257</v>
       </c>
       <c r="G103">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2794,13 +2794,13 @@
         <v>2181</v>
       </c>
       <c r="E104">
-        <v>167885.9999999813</v>
+        <v>167886</v>
       </c>
       <c r="F104" s="1">
-        <v>0.773383832737176</v>
+        <v>0.7733866472574501</v>
       </c>
       <c r="G104">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2817,13 +2817,13 @@
         <v>2181</v>
       </c>
       <c r="E105">
-        <v>170066.9999999813</v>
+        <v>170067</v>
       </c>
       <c r="F105" s="1">
-        <v>0.7834308297422865</v>
+        <v>0.7834336808258745</v>
       </c>
       <c r="G105">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2840,13 +2840,13 @@
         <v>2181</v>
       </c>
       <c r="E106">
-        <v>172247.9999999813</v>
+        <v>172248</v>
       </c>
       <c r="F106" s="1">
-        <v>0.793477826747397</v>
+        <v>0.7934807143942989</v>
       </c>
       <c r="G106">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2863,13 +2863,13 @@
         <v>2181</v>
       </c>
       <c r="E107">
-        <v>174428.9999999813</v>
+        <v>174429</v>
       </c>
       <c r="F107" s="1">
-        <v>0.8035248237525073</v>
+        <v>0.8035277479627232</v>
       </c>
       <c r="G107">
-        <v>2181.697</v>
+        <v>2181</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2883,16 +2883,16 @@
         <v>7</v>
       </c>
       <c r="D108">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E108">
-        <v>176537.9999999813</v>
+        <v>176537</v>
       </c>
       <c r="F108" s="1">
-        <v>0.8132401454782193</v>
+        <v>0.81323849842684</v>
       </c>
       <c r="G108">
-        <v>2109.30829354</v>
+        <v>2108.63442</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2906,16 +2906,16 @@
         <v>7</v>
       </c>
       <c r="D109">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E109">
-        <v>178646.9999999813</v>
+        <v>178645</v>
       </c>
       <c r="F109" s="1">
-        <v>0.8229554672039314</v>
+        <v>0.8229492488909568</v>
       </c>
       <c r="G109">
-        <v>2109.30829354</v>
+        <v>2108.63442</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2929,16 +2929,16 @@
         <v>7</v>
       </c>
       <c r="D110">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="E110">
-        <v>180755.9999999813</v>
+        <v>180753</v>
       </c>
       <c r="F110" s="1">
-        <v>0.8326707889296434</v>
+        <v>0.8326599993550735</v>
       </c>
       <c r="G110">
-        <v>2109.30829354</v>
+        <v>2108.63442</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2955,13 +2955,13 @@
         <v>2012</v>
       </c>
       <c r="E111">
-        <v>182767.9999999813</v>
+        <v>182765</v>
       </c>
       <c r="F111" s="1">
-        <v>0.8419392703483881</v>
+        <v>0.8419285145039364</v>
       </c>
       <c r="G111">
-        <v>2012.79001826</v>
+        <v>2012.14698</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2978,13 +2978,13 @@
         <v>2012</v>
       </c>
       <c r="E112">
-        <v>184779.9999999813</v>
+        <v>184777</v>
       </c>
       <c r="F112" s="1">
-        <v>0.8512077517671328</v>
+        <v>0.8511970296527992</v>
       </c>
       <c r="G112">
-        <v>2012.79001826</v>
+        <v>2012.14698</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3001,13 +3001,13 @@
         <v>2012</v>
       </c>
       <c r="E113">
-        <v>186791.9999999813</v>
+        <v>186789</v>
       </c>
       <c r="F113" s="1">
-        <v>0.8604762331858774</v>
+        <v>0.860465544801662</v>
       </c>
       <c r="G113">
-        <v>2012.79001826</v>
+        <v>2012.14698</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3024,13 +3024,13 @@
         <v>2012</v>
       </c>
       <c r="E114">
-        <v>188803.9999999813</v>
+        <v>188801</v>
       </c>
       <c r="F114" s="1">
-        <v>0.8697447146046221</v>
+        <v>0.8697340599505249</v>
       </c>
       <c r="G114">
-        <v>2012.79001826</v>
+        <v>2012.14698</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3047,13 +3047,13 @@
         <v>2012</v>
       </c>
       <c r="E115">
-        <v>190815.9999999813</v>
+        <v>190813</v>
       </c>
       <c r="F115" s="1">
-        <v>0.8790131960233668</v>
+        <v>0.8790025750993877</v>
       </c>
       <c r="G115">
-        <v>2012.79001826</v>
+        <v>2012.14698</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3067,16 +3067,16 @@
         <v>7</v>
       </c>
       <c r="D116">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E116">
-        <v>192731.9999999813</v>
+        <v>192728</v>
       </c>
       <c r="F116" s="1">
-        <v>0.887839443736247</v>
+        <v>0.8878242483151295</v>
       </c>
       <c r="G116">
-        <v>1916.27174298</v>
+        <v>1915.65954</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3090,16 +3090,16 @@
         <v>7</v>
       </c>
       <c r="D117">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E117">
-        <v>194647.9999999813</v>
+        <v>194643</v>
       </c>
       <c r="F117" s="1">
-        <v>0.8966656914491271</v>
+        <v>0.8966459215308713</v>
       </c>
       <c r="G117">
-        <v>1916.27174298</v>
+        <v>1915.65954</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3113,16 +3113,16 @@
         <v>7</v>
       </c>
       <c r="D118">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E118">
-        <v>196563.9999999813</v>
+        <v>196558</v>
       </c>
       <c r="F118" s="1">
-        <v>0.9054919391620072</v>
+        <v>0.905467594746613</v>
       </c>
       <c r="G118">
-        <v>1916.27174298</v>
+        <v>1915.65954</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3136,16 +3136,16 @@
         <v>7</v>
       </c>
       <c r="D119">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="E119">
-        <v>198479.9999999813</v>
+        <v>198473</v>
       </c>
       <c r="F119" s="1">
-        <v>0.9143181868748874</v>
+        <v>0.9142892679623548</v>
       </c>
       <c r="G119">
-        <v>1916.27174298</v>
+        <v>1915.65954</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3162,13 +3162,13 @@
         <v>1819</v>
       </c>
       <c r="E120">
-        <v>200298.9999999813</v>
+        <v>200292</v>
       </c>
       <c r="F120" s="1">
-        <v>0.9226975942808002</v>
+        <v>0.9226687058628426</v>
       </c>
       <c r="G120">
-        <v>1819.7534677</v>
+        <v>1819.1721</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3185,13 +3185,13 @@
         <v>1819</v>
       </c>
       <c r="E121">
-        <v>202117.9999999813</v>
+        <v>202111</v>
       </c>
       <c r="F121" s="1">
-        <v>0.931077001686713</v>
+        <v>0.9310481437633304</v>
       </c>
       <c r="G121">
-        <v>1819.7534677</v>
+        <v>1819.1721</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3208,13 +3208,13 @@
         <v>1819</v>
       </c>
       <c r="E122">
-        <v>203936.9999999813</v>
+        <v>203930</v>
       </c>
       <c r="F122" s="1">
-        <v>0.9394564090926258</v>
+        <v>0.9394275816638182</v>
       </c>
       <c r="G122">
-        <v>1819.7534677</v>
+        <v>1819.1721</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3231,13 +3231,13 @@
         <v>1819</v>
       </c>
       <c r="E123">
-        <v>205755.9999999813</v>
+        <v>205749</v>
       </c>
       <c r="F123" s="1">
-        <v>0.9478358164985387</v>
+        <v>0.9478070195643061</v>
       </c>
       <c r="G123">
-        <v>1819.7534677</v>
+        <v>1819.1721</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3251,16 +3251,16 @@
         <v>8</v>
       </c>
       <c r="D124">
-        <v>919</v>
+        <v>1819</v>
       </c>
       <c r="E124">
-        <v>206674.9999999813</v>
+        <v>207568</v>
       </c>
       <c r="F124" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9561864574647939</v>
       </c>
       <c r="G124">
-        <v>1819.7534677</v>
+        <v>1819.1721</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3277,13 +3277,13 @@
         <v>0</v>
       </c>
       <c r="E125">
-        <v>206674.9999999813</v>
+        <v>207568</v>
       </c>
       <c r="F125" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9561864574647939</v>
       </c>
       <c r="G125">
-        <v>1819.7534677</v>
+        <v>1819.1721</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3300,13 +3300,13 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <v>206674.9999999813</v>
+        <v>207568</v>
       </c>
       <c r="F126" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9561864574647939</v>
       </c>
       <c r="G126">
-        <v>1819.7534677</v>
+        <v>1819.1721</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3320,16 +3320,16 @@
         <v>8</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>828</v>
       </c>
       <c r="E127">
-        <v>206674.9999999813</v>
+        <v>208396</v>
       </c>
       <c r="F127" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9600007370588588</v>
       </c>
       <c r="G127">
-        <v>1819.7534677</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3346,13 +3346,13 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <v>206674.9999999813</v>
+        <v>208396</v>
       </c>
       <c r="F128" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9600007370588588</v>
       </c>
       <c r="G128">
-        <v>1819.7534677</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3369,13 +3369,13 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <v>206674.9999999813</v>
+        <v>208396</v>
       </c>
       <c r="F129" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9600007370588588</v>
       </c>
       <c r="G129">
-        <v>1819.7534677</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3389,16 +3389,16 @@
         <v>8</v>
       </c>
       <c r="D130">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="E130">
-        <v>206674.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F130" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G130">
-        <v>1819.7534677</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3415,13 +3415,13 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>206674.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F131" s="1">
-        <v>0.9520692829119712</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G131">
-        <v>1819.7534677</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3435,16 +3435,16 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="E132">
-        <v>208396.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F132" s="1">
-        <v>0.9600018500109168</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G132">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3461,13 +3461,13 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>208396.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F133" s="1">
-        <v>0.9600018500109168</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G133">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3484,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="E134">
-        <v>208396.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F134" s="1">
-        <v>0.9600018500109168</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G134">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3507,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="E135">
-        <v>208396.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F135" s="1">
-        <v>0.9600018500109168</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G135">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3530,13 +3530,13 @@
         <v>0</v>
       </c>
       <c r="E136">
-        <v>208396.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F136" s="1">
-        <v>0.9600018500109168</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G136">
-        <v>1722.580683320061</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3550,16 +3550,16 @@
         <v>8</v>
       </c>
       <c r="D137">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="E137">
-        <v>210118.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F137" s="1">
-        <v>0.9679344171098623</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G137">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3573,16 +3573,16 @@
         <v>8</v>
       </c>
       <c r="D138">
-        <v>1722</v>
+        <v>0</v>
       </c>
       <c r="E138">
-        <v>211840.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F138" s="1">
-        <v>0.9758669842088078</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G138">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="E139">
-        <v>211840.9999999813</v>
+        <v>210118</v>
       </c>
       <c r="F139" s="1">
-        <v>0.9758669842088078</v>
+        <v>0.9679333330262255</v>
       </c>
       <c r="G139">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3622,13 +3622,13 @@
         <v>1722</v>
       </c>
       <c r="E140">
-        <v>213562.9999999813</v>
+        <v>211840</v>
       </c>
       <c r="F140" s="1">
-        <v>0.9837995513077533</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G140">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3642,16 +3642,16 @@
         <v>8</v>
       </c>
       <c r="D141">
-        <v>1722.000000018698</v>
+        <v>0</v>
       </c>
       <c r="E141">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F141" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G141">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3668,13 +3668,13 @@
         <v>0</v>
       </c>
       <c r="E142">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F142" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G142">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3691,13 +3691,13 @@
         <v>0</v>
       </c>
       <c r="E143">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F143" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G143">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="E144">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F144" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G144">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3737,13 +3737,13 @@
         <v>0</v>
       </c>
       <c r="E145">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F145" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G145">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3760,13 +3760,13 @@
         <v>0</v>
       </c>
       <c r="E146">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F146" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G146">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3783,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F147" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G147">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3806,13 +3806,13 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F148" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G148">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3829,13 +3829,13 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <v>215285</v>
+        <v>211840</v>
       </c>
       <c r="F149" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9758659289935921</v>
       </c>
       <c r="G149">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3849,16 +3849,16 @@
         <v>8</v>
       </c>
       <c r="D150">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="E150">
-        <v>215285</v>
+        <v>213562</v>
       </c>
       <c r="F150" s="1">
-        <v>0.9917321184067849</v>
+        <v>0.9837985249609589</v>
       </c>
       <c r="G150">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3875,13 +3875,13 @@
         <v>1722</v>
       </c>
       <c r="E151">
-        <v>217007</v>
+        <v>215284</v>
       </c>
       <c r="F151" s="1">
-        <v>0.9996646855057304</v>
+        <v>0.9917311209283256</v>
       </c>
       <c r="G151">
-        <v>1722.58068332</v>
+        <v>1722.030360000092</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3895,16 +3895,16 @@
         <v>8</v>
       </c>
       <c r="D152">
-        <v>0</v>
+        <v>72.99999999996915</v>
       </c>
       <c r="E152">
-        <v>217007</v>
+        <v>215357</v>
       </c>
       <c r="F152" s="1">
-        <v>0.9996646855057304</v>
+        <v>0.9920674040326332</v>
       </c>
       <c r="G152">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3918,16 +3918,16 @@
         <v>8</v>
       </c>
       <c r="D153">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="E153">
-        <v>217079</v>
+        <v>215357</v>
       </c>
       <c r="F153" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9920674040326332</v>
       </c>
       <c r="G153">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3941,16 +3941,16 @@
         <v>8</v>
       </c>
       <c r="D154">
-        <v>0</v>
+        <v>1722</v>
       </c>
       <c r="E154">
         <v>217079</v>
       </c>
       <c r="F154" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G154">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3970,10 +3970,10 @@
         <v>217079</v>
       </c>
       <c r="F155" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G155">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3993,10 +3993,10 @@
         <v>217079</v>
       </c>
       <c r="F156" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G156">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4016,10 +4016,10 @@
         <v>217079</v>
       </c>
       <c r="F157" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G157">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4039,10 +4039,10 @@
         <v>217079</v>
       </c>
       <c r="F158" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G158">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4062,10 +4062,10 @@
         <v>217079</v>
       </c>
       <c r="F159" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G159">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4085,10 +4085,10 @@
         <v>217079</v>
       </c>
       <c r="F160" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G160">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4108,10 +4108,10 @@
         <v>217079</v>
       </c>
       <c r="F161" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G161">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4131,10 +4131,10 @@
         <v>217079</v>
       </c>
       <c r="F162" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G162">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4154,10 +4154,10 @@
         <v>217079</v>
       </c>
       <c r="F163" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G163">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4177,10 +4177,10 @@
         <v>217079</v>
       </c>
       <c r="F164" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G164">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4200,10 +4200,10 @@
         <v>217079</v>
       </c>
       <c r="F165" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G165">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4223,10 +4223,10 @@
         <v>217079</v>
       </c>
       <c r="F166" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G166">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4246,10 +4246,10 @@
         <v>217079</v>
       </c>
       <c r="F167" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G167">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4269,10 +4269,10 @@
         <v>217079</v>
       </c>
       <c r="F168" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G168">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4292,10 +4292,10 @@
         <v>217079</v>
       </c>
       <c r="F169" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G169">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4315,10 +4315,10 @@
         <v>217079</v>
       </c>
       <c r="F170" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G170">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4338,10 +4338,10 @@
         <v>217079</v>
       </c>
       <c r="F171" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G171">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4361,10 +4361,10 @@
         <v>217079</v>
       </c>
       <c r="F172" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G172">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4384,10 +4384,10 @@
         <v>217079</v>
       </c>
       <c r="F173" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G173">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4407,10 +4407,10 @@
         <v>217079</v>
       </c>
       <c r="F174" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G174">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4430,10 +4430,10 @@
         <v>217079</v>
       </c>
       <c r="F175" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G175">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4453,10 +4453,10 @@
         <v>217079</v>
       </c>
       <c r="F176" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G176">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4476,10 +4476,10 @@
         <v>217079</v>
       </c>
       <c r="F177" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G177">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4499,10 +4499,10 @@
         <v>217079</v>
       </c>
       <c r="F178" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G178">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4522,10 +4522,10 @@
         <v>217079</v>
       </c>
       <c r="F179" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="G179">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4539,16 +4539,16 @@
         <v>9</v>
       </c>
       <c r="D180">
-        <v>0</v>
+        <v>3.085176558670354E-11</v>
       </c>
       <c r="E180">
         <v>217079</v>
       </c>
       <c r="F180" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G180">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4568,10 +4568,10 @@
         <v>217079</v>
       </c>
       <c r="F181" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G181">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4591,10 +4591,10 @@
         <v>217079</v>
       </c>
       <c r="F182" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4614,10 +4614,10 @@
         <v>217079</v>
       </c>
       <c r="F183" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G183">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4637,10 +4637,10 @@
         <v>217079</v>
       </c>
       <c r="F184" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>1722.58068332</v>
+        <v>1722.03036</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4660,10 +4660,10 @@
         <v>217079</v>
       </c>
       <c r="F185" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G185">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4683,10 +4683,10 @@
         <v>217079</v>
       </c>
       <c r="F186" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G186">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4706,10 +4706,10 @@
         <v>217079</v>
       </c>
       <c r="F187" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G187">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4729,10 +4729,10 @@
         <v>217079</v>
       </c>
       <c r="F188" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G188">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4752,10 +4752,10 @@
         <v>217079</v>
       </c>
       <c r="F189" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G189">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4775,10 +4775,10 @@
         <v>217079</v>
       </c>
       <c r="F190" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G190">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4798,10 +4798,10 @@
         <v>217079</v>
       </c>
       <c r="F191" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4821,10 +4821,10 @@
         <v>217079</v>
       </c>
       <c r="F192" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G192">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4844,10 +4844,10 @@
         <v>217079</v>
       </c>
       <c r="F193" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G193">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4867,10 +4867,10 @@
         <v>217079</v>
       </c>
       <c r="F194" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G194">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4890,10 +4890,10 @@
         <v>217079</v>
       </c>
       <c r="F195" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G195">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4913,10 +4913,10 @@
         <v>217079</v>
       </c>
       <c r="F196" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G196">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4936,10 +4936,10 @@
         <v>217079</v>
       </c>
       <c r="F197" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G197">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4959,10 +4959,10 @@
         <v>217079</v>
       </c>
       <c r="F198" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G198">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4982,10 +4982,10 @@
         <v>217079</v>
       </c>
       <c r="F199" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G199">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5005,10 +5005,10 @@
         <v>217079</v>
       </c>
       <c r="F200" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G200">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5028,10 +5028,10 @@
         <v>217079</v>
       </c>
       <c r="F201" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G201">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5051,10 +5051,10 @@
         <v>217079</v>
       </c>
       <c r="F202" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G202">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5074,10 +5074,10 @@
         <v>217079</v>
       </c>
       <c r="F203" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G203">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5097,10 +5097,10 @@
         <v>217079</v>
       </c>
       <c r="F204" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5120,10 +5120,10 @@
         <v>217079</v>
       </c>
       <c r="F205" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G205">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5143,10 +5143,10 @@
         <v>217079</v>
       </c>
       <c r="F206" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G206">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5166,10 +5166,10 @@
         <v>217079</v>
       </c>
       <c r="F207" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G207">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5189,10 +5189,10 @@
         <v>217079</v>
       </c>
       <c r="F208" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G208">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5212,10 +5212,10 @@
         <v>217079</v>
       </c>
       <c r="F209" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G209">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5235,10 +5235,10 @@
         <v>217079</v>
       </c>
       <c r="F210" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G210">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5258,10 +5258,10 @@
         <v>217079</v>
       </c>
       <c r="F211" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5281,10 +5281,10 @@
         <v>217079</v>
       </c>
       <c r="F212" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G212">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5304,10 +5304,10 @@
         <v>217079</v>
       </c>
       <c r="F213" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G213">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5327,10 +5327,10 @@
         <v>217079</v>
       </c>
       <c r="F214" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G214">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5350,10 +5350,10 @@
         <v>217079</v>
       </c>
       <c r="F215" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G215">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5373,10 +5373,10 @@
         <v>217079</v>
       </c>
       <c r="F216" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G216">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5396,10 +5396,10 @@
         <v>217079</v>
       </c>
       <c r="F217" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G217">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5419,10 +5419,10 @@
         <v>217079</v>
       </c>
       <c r="F218" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G218">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5442,10 +5442,10 @@
         <v>217079</v>
       </c>
       <c r="F219" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G219">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5465,10 +5465,10 @@
         <v>217079</v>
       </c>
       <c r="F220" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5488,10 +5488,10 @@
         <v>217079</v>
       </c>
       <c r="F221" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G221">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5511,10 +5511,10 @@
         <v>217079</v>
       </c>
       <c r="F222" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G222">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5534,10 +5534,10 @@
         <v>217079</v>
       </c>
       <c r="F223" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G223">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5557,10 +5557,10 @@
         <v>217079</v>
       </c>
       <c r="F224" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G224">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5580,10 +5580,10 @@
         <v>217079</v>
       </c>
       <c r="F225" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G225">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5603,10 +5603,10 @@
         <v>217079</v>
       </c>
       <c r="F226" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G226">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5626,10 +5626,10 @@
         <v>217079</v>
       </c>
       <c r="F227" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G227">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5649,10 +5649,10 @@
         <v>217079</v>
       </c>
       <c r="F228" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G228">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5672,10 +5672,10 @@
         <v>217079</v>
       </c>
       <c r="F229" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G229">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5695,10 +5695,10 @@
         <v>217079</v>
       </c>
       <c r="F230" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G230">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5718,10 +5718,10 @@
         <v>217079</v>
       </c>
       <c r="F231" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G231">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5741,10 +5741,10 @@
         <v>217079</v>
       </c>
       <c r="F232" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G232">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5764,10 +5764,10 @@
         <v>217079</v>
       </c>
       <c r="F233" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G233">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5787,10 +5787,10 @@
         <v>217079</v>
       </c>
       <c r="F234" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G234">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5810,10 +5810,10 @@
         <v>217079</v>
       </c>
       <c r="F235" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G235">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5833,10 +5833,10 @@
         <v>217079</v>
       </c>
       <c r="F236" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G236">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5856,10 +5856,10 @@
         <v>217079</v>
       </c>
       <c r="F237" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5873,16 +5873,16 @@
         <v>11</v>
       </c>
       <c r="D238">
-        <v>0</v>
+        <v>-2.349763050799049E-09</v>
       </c>
       <c r="E238">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F238" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G238">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5899,13 +5899,13 @@
         <v>0</v>
       </c>
       <c r="E239">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F239" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G239">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5922,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="E240">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F240" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G240">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5945,13 +5945,13 @@
         <v>0</v>
       </c>
       <c r="E241">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F241" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G241">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5968,13 +5968,13 @@
         <v>0</v>
       </c>
       <c r="E242">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F242" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G242">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5991,13 +5991,13 @@
         <v>0</v>
       </c>
       <c r="E243">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F243" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G243">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6014,13 +6014,13 @@
         <v>0</v>
       </c>
       <c r="E244">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F244" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G244">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6037,13 +6037,13 @@
         <v>0</v>
       </c>
       <c r="E245">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="F245" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
       <c r="G245">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6060,13 +6060,13 @@
         <v>-3635</v>
       </c>
       <c r="E246">
-        <v>213444</v>
+        <v>213443.9999999976</v>
       </c>
       <c r="F246" s="1">
-        <v>0.9832513657766114</v>
+        <v>0.9832549440526152</v>
       </c>
       <c r="G246">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6083,13 +6083,13 @@
         <v>-3635</v>
       </c>
       <c r="E247">
-        <v>209809</v>
+        <v>209808.9999999976</v>
       </c>
       <c r="F247" s="1">
-        <v>0.9665063707680941</v>
+        <v>0.9665098881052412</v>
       </c>
       <c r="G247">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6106,13 +6106,13 @@
         <v>-3635</v>
       </c>
       <c r="E248">
-        <v>206174</v>
+        <v>206173.9999999976</v>
       </c>
       <c r="F248" s="1">
-        <v>0.9497613757595766</v>
+        <v>0.9497648321578671</v>
       </c>
       <c r="G248">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6129,13 +6129,13 @@
         <v>-3635</v>
       </c>
       <c r="E249">
-        <v>202539</v>
+        <v>202538.9999999976</v>
       </c>
       <c r="F249" s="1">
-        <v>0.9330163807510593</v>
+        <v>0.9330197762104931</v>
       </c>
       <c r="G249">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6152,13 +6152,13 @@
         <v>-3635</v>
       </c>
       <c r="E250">
-        <v>198904</v>
+        <v>198903.9999999976</v>
       </c>
       <c r="F250" s="1">
-        <v>0.916271385742542</v>
+        <v>0.9162747202631192</v>
       </c>
       <c r="G250">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6175,13 +6175,13 @@
         <v>-3635</v>
       </c>
       <c r="E251">
-        <v>195269</v>
+        <v>195268.9999999976</v>
       </c>
       <c r="F251" s="1">
-        <v>0.8995263907340245</v>
+        <v>0.8995296643157451</v>
       </c>
       <c r="G251">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6198,13 +6198,13 @@
         <v>-3635</v>
       </c>
       <c r="E252">
-        <v>191634</v>
+        <v>191633.9999999976</v>
       </c>
       <c r="F252" s="1">
-        <v>0.8827813957255072</v>
+        <v>0.8827846083683711</v>
       </c>
       <c r="G252">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6221,13 +6221,13 @@
         <v>-3635</v>
       </c>
       <c r="E253">
-        <v>187999</v>
+        <v>187998.9999999976</v>
       </c>
       <c r="F253" s="1">
-        <v>0.8660364007169898</v>
+        <v>0.8660395524209972</v>
       </c>
       <c r="G253">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6244,13 +6244,13 @@
         <v>-3635</v>
       </c>
       <c r="E254">
-        <v>184364</v>
+        <v>184363.9999999976</v>
       </c>
       <c r="F254" s="1">
-        <v>0.8492914057084724</v>
+        <v>0.8492944964736232</v>
       </c>
       <c r="G254">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6267,13 +6267,13 @@
         <v>-3635</v>
       </c>
       <c r="E255">
-        <v>180729</v>
+        <v>180728.9999999976</v>
       </c>
       <c r="F255" s="1">
-        <v>0.8325464106999551</v>
+        <v>0.8325494405262491</v>
       </c>
       <c r="G255">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6290,13 +6290,13 @@
         <v>-3635</v>
       </c>
       <c r="E256">
-        <v>177094</v>
+        <v>177093.9999999976</v>
       </c>
       <c r="F256" s="1">
-        <v>0.8158014156914377</v>
+        <v>0.8158043845788752</v>
       </c>
       <c r="G256">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6313,13 +6313,13 @@
         <v>-3635</v>
       </c>
       <c r="E257">
-        <v>173459</v>
+        <v>173458.9999999976</v>
       </c>
       <c r="F257" s="1">
-        <v>0.7990564206829203</v>
+        <v>0.7990593286315012</v>
       </c>
       <c r="G257">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6336,13 +6336,13 @@
         <v>-3635</v>
       </c>
       <c r="E258">
-        <v>169824</v>
+        <v>169823.9999999976</v>
       </c>
       <c r="F258" s="1">
-        <v>0.7823114256744029</v>
+        <v>0.7823142726841271</v>
       </c>
       <c r="G258">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6359,13 +6359,13 @@
         <v>-3635</v>
       </c>
       <c r="E259">
-        <v>166189</v>
+        <v>166188.9999999976</v>
       </c>
       <c r="F259" s="1">
-        <v>0.7655664306658856</v>
+        <v>0.7655692167367532</v>
       </c>
       <c r="G259">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6382,13 +6382,13 @@
         <v>-3635</v>
       </c>
       <c r="E260">
-        <v>162554</v>
+        <v>162553.9999999976</v>
       </c>
       <c r="F260" s="1">
-        <v>0.7488214356573683</v>
+        <v>0.7488241607893792</v>
       </c>
       <c r="G260">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6402,16 +6402,16 @@
         <v>12</v>
       </c>
       <c r="D261">
-        <v>-3635.000000043614</v>
+        <v>-3635</v>
       </c>
       <c r="E261">
-        <v>158918.9999999564</v>
+        <v>158918.9999999976</v>
       </c>
       <c r="F261" s="1">
-        <v>0.73207644064865</v>
+        <v>0.7320791048420052</v>
       </c>
       <c r="G261">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6428,13 +6428,13 @@
         <v>-3635</v>
       </c>
       <c r="E262">
-        <v>155283.9999999564</v>
+        <v>155283.9999999976</v>
       </c>
       <c r="F262" s="1">
-        <v>0.7153314456401326</v>
+        <v>0.7153340488946311</v>
       </c>
       <c r="G262">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6451,13 +6451,13 @@
         <v>-3635</v>
       </c>
       <c r="E263">
-        <v>151648.9999999564</v>
+        <v>151648.9999999976</v>
       </c>
       <c r="F263" s="1">
-        <v>0.6985864506316152</v>
+        <v>0.6985889929472572</v>
       </c>
       <c r="G263">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6474,13 +6474,13 @@
         <v>-3635</v>
       </c>
       <c r="E264">
-        <v>148013.9999999564</v>
+        <v>148013.9999999976</v>
       </c>
       <c r="F264" s="1">
-        <v>0.6818414556230978</v>
+        <v>0.6818439369998832</v>
       </c>
       <c r="G264">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6497,13 +6497,13 @@
         <v>-3635</v>
       </c>
       <c r="E265">
-        <v>144378.9999999564</v>
+        <v>144378.9999999976</v>
       </c>
       <c r="F265" s="1">
-        <v>0.6650964606145805</v>
+        <v>0.6650988810525091</v>
       </c>
       <c r="G265">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6520,13 +6520,13 @@
         <v>-3635</v>
       </c>
       <c r="E266">
-        <v>140743.9999999564</v>
+        <v>140743.9999999976</v>
       </c>
       <c r="F266" s="1">
-        <v>0.648351465606063</v>
+        <v>0.6483538251051352</v>
       </c>
       <c r="G266">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6543,13 +6543,13 @@
         <v>-3635</v>
       </c>
       <c r="E267">
-        <v>137108.9999999564</v>
+        <v>137108.9999999976</v>
       </c>
       <c r="F267" s="1">
-        <v>0.6316064705975457</v>
+        <v>0.6316087691577612</v>
       </c>
       <c r="G267">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6566,13 +6566,13 @@
         <v>-3635</v>
       </c>
       <c r="E268">
-        <v>133473.9999999564</v>
+        <v>133473.9999999976</v>
       </c>
       <c r="F268" s="1">
-        <v>0.6148614755890284</v>
+        <v>0.6148637132103872</v>
       </c>
       <c r="G268">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6586,16 +6586,16 @@
         <v>12</v>
       </c>
       <c r="D269">
-        <v>-3635</v>
+        <v>-3634.99999999765</v>
       </c>
       <c r="E269">
-        <v>129838.9999999564</v>
+        <v>129839</v>
       </c>
       <c r="F269" s="1">
-        <v>0.5981164805805109</v>
+        <v>0.598118657263024</v>
       </c>
       <c r="G269">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6612,13 +6612,13 @@
         <v>-3635</v>
       </c>
       <c r="E270">
-        <v>126203.9999999564</v>
+        <v>126204</v>
       </c>
       <c r="F270" s="1">
-        <v>0.5813714855719935</v>
+        <v>0.5813736013156501</v>
       </c>
       <c r="G270">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6635,13 +6635,13 @@
         <v>-3635</v>
       </c>
       <c r="E271">
-        <v>122568.9999999564</v>
+        <v>122569</v>
       </c>
       <c r="F271" s="1">
-        <v>0.5646264905634761</v>
+        <v>0.5646285453682761</v>
       </c>
       <c r="G271">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6658,13 +6658,13 @@
         <v>-3635</v>
       </c>
       <c r="E272">
-        <v>118933.9999999564</v>
+        <v>118934</v>
       </c>
       <c r="F272" s="1">
-        <v>0.5478814955549588</v>
+        <v>0.547883489420902</v>
       </c>
       <c r="G272">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6678,16 +6678,16 @@
         <v>12</v>
       </c>
       <c r="D273">
-        <v>-3150</v>
+        <v>-3635</v>
       </c>
       <c r="E273">
-        <v>115783.9999999564</v>
+        <v>115299</v>
       </c>
       <c r="F273" s="1">
-        <v>0.533370702081278</v>
+        <v>0.5311384334735281</v>
       </c>
       <c r="G273">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6704,13 +6704,13 @@
         <v>-3635</v>
       </c>
       <c r="E274">
-        <v>112148.9999999564</v>
+        <v>111664</v>
       </c>
       <c r="F274" s="1">
-        <v>0.5166257070727606</v>
+        <v>0.5143933775261541</v>
       </c>
       <c r="G274">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6724,16 +6724,16 @@
         <v>12</v>
       </c>
       <c r="D275">
-        <v>-3635</v>
+        <v>-3150</v>
       </c>
       <c r="E275">
-        <v>108513.9999999564</v>
+        <v>108514</v>
       </c>
       <c r="F275" s="1">
-        <v>0.4998807120642432</v>
+        <v>0.4998825312443857</v>
       </c>
       <c r="G275">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6750,13 +6750,13 @@
         <v>-3635</v>
       </c>
       <c r="E276">
-        <v>104878.9999999564</v>
+        <v>104879</v>
       </c>
       <c r="F276" s="1">
-        <v>0.4831357170557258</v>
+        <v>0.4831374752970117</v>
       </c>
       <c r="G276">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6773,13 +6773,13 @@
         <v>-3635</v>
       </c>
       <c r="E277">
-        <v>101243.9999999564</v>
+        <v>101244</v>
       </c>
       <c r="F277" s="1">
-        <v>0.4663907220472085</v>
+        <v>0.4663924193496377</v>
       </c>
       <c r="G277">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6796,13 +6796,13 @@
         <v>-3635</v>
       </c>
       <c r="E278">
-        <v>97608.99999995639</v>
+        <v>97609</v>
       </c>
       <c r="F278" s="1">
-        <v>0.4496457270386911</v>
+        <v>0.4496473634022637</v>
       </c>
       <c r="G278">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6819,13 +6819,13 @@
         <v>-3635</v>
       </c>
       <c r="E279">
-        <v>93973.99999995639</v>
+        <v>93974</v>
       </c>
       <c r="F279" s="1">
-        <v>0.4329007320301737</v>
+        <v>0.4329023074548897</v>
       </c>
       <c r="G279">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6842,13 +6842,13 @@
         <v>-3635</v>
       </c>
       <c r="E280">
-        <v>90338.99999995639</v>
+        <v>90339</v>
       </c>
       <c r="F280" s="1">
-        <v>0.4161557370216564</v>
+        <v>0.4161572515075157</v>
       </c>
       <c r="G280">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6865,13 +6865,13 @@
         <v>-3635</v>
       </c>
       <c r="E281">
-        <v>86703.99999995639</v>
+        <v>86704</v>
       </c>
       <c r="F281" s="1">
-        <v>0.399410742013139</v>
+        <v>0.3994121955601417</v>
       </c>
       <c r="G281">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6888,13 +6888,13 @@
         <v>-3635</v>
       </c>
       <c r="E282">
-        <v>83068.99999995639</v>
+        <v>83069</v>
       </c>
       <c r="F282" s="1">
-        <v>0.3826657470046216</v>
+        <v>0.3826671396127677</v>
       </c>
       <c r="G282">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6911,13 +6911,13 @@
         <v>-3635</v>
       </c>
       <c r="E283">
-        <v>79433.99999995639</v>
+        <v>79434</v>
       </c>
       <c r="F283" s="1">
-        <v>0.3659207519961042</v>
+        <v>0.3659220836653937</v>
       </c>
       <c r="G283">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6934,13 +6934,13 @@
         <v>-3635</v>
       </c>
       <c r="E284">
-        <v>75798.99999995639</v>
+        <v>75799</v>
       </c>
       <c r="F284" s="1">
-        <v>0.3491757569875868</v>
+        <v>0.3491770277180197</v>
       </c>
       <c r="G284">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6957,13 +6957,13 @@
         <v>-3635</v>
       </c>
       <c r="E285">
-        <v>72163.99999995639</v>
+        <v>72164</v>
       </c>
       <c r="F285" s="1">
-        <v>0.3324307619790695</v>
+        <v>0.3324319717706457</v>
       </c>
       <c r="G285">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6980,13 +6980,13 @@
         <v>-3635</v>
       </c>
       <c r="E286">
-        <v>68528.99999995639</v>
+        <v>68529</v>
       </c>
       <c r="F286" s="1">
-        <v>0.3156857669705521</v>
+        <v>0.3156869158232717</v>
       </c>
       <c r="G286">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -7003,13 +7003,13 @@
         <v>-3635</v>
       </c>
       <c r="E287">
-        <v>64893.99999995639</v>
+        <v>64894</v>
       </c>
       <c r="F287" s="1">
-        <v>0.2989407719620347</v>
+        <v>0.2989418598758977</v>
       </c>
       <c r="G287">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7026,13 +7026,13 @@
         <v>-3635</v>
       </c>
       <c r="E288">
-        <v>61258.99999995639</v>
+        <v>61259</v>
       </c>
       <c r="F288" s="1">
-        <v>0.2821957769535173</v>
+        <v>0.2821968039285237</v>
       </c>
       <c r="G288">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7049,13 +7049,13 @@
         <v>-3635</v>
       </c>
       <c r="E289">
-        <v>57623.99999995639</v>
+        <v>57624</v>
       </c>
       <c r="F289" s="1">
-        <v>0.265450781945</v>
+        <v>0.2654517479811497</v>
       </c>
       <c r="G289">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7072,13 +7072,13 @@
         <v>-3635</v>
       </c>
       <c r="E290">
-        <v>53988.99999995639</v>
+        <v>53989</v>
       </c>
       <c r="F290" s="1">
-        <v>0.2487057869364826</v>
+        <v>0.2487066920337757</v>
       </c>
       <c r="G290">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7095,13 +7095,13 @@
         <v>-3635</v>
       </c>
       <c r="E291">
-        <v>50353.99999995639</v>
+        <v>50354</v>
       </c>
       <c r="F291" s="1">
-        <v>0.2319607919279652</v>
+        <v>0.2319616360864017</v>
       </c>
       <c r="G291">
-        <v>-3635.322</v>
+        <v>-3635</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7118,13 +7118,13 @@
         <v>-3469</v>
       </c>
       <c r="E292">
-        <v>46884.99999995639</v>
+        <v>46885</v>
       </c>
       <c r="F292" s="1">
-        <v>0.2159804927025053</v>
+        <v>0.2159812787049876</v>
       </c>
       <c r="G292">
-        <v>-3469.58767002</v>
+        <v>-3469.28035</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7138,16 +7138,16 @@
         <v>1</v>
       </c>
       <c r="D293">
-        <v>-3468.999999991574</v>
+        <v>-3469</v>
       </c>
       <c r="E293">
-        <v>43415.99999996481</v>
+        <v>43416</v>
       </c>
       <c r="F293" s="1">
-        <v>0.2000001934770842</v>
+        <v>0.2000009213235734</v>
       </c>
       <c r="G293">
-        <v>-3469.587670011568</v>
+        <v>-3469.28035</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7161,16 +7161,16 @@
         <v>1</v>
       </c>
       <c r="D294">
-        <v>-3055</v>
+        <v>-3054</v>
       </c>
       <c r="E294">
-        <v>40360.99999996481</v>
+        <v>40362</v>
       </c>
       <c r="F294" s="1">
-        <v>0.1859270271081652</v>
+        <v>0.185932310357059</v>
       </c>
       <c r="G294">
-        <v>-3055.27002168</v>
+        <v>-3054.9994</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7184,16 +7184,16 @@
         <v>1</v>
       </c>
       <c r="D295">
-        <v>-3055</v>
+        <v>-3054</v>
       </c>
       <c r="E295">
-        <v>37305.99999996481</v>
+        <v>37308</v>
       </c>
       <c r="F295" s="1">
-        <v>0.1718538607392462</v>
+        <v>0.1718636993905445</v>
       </c>
       <c r="G295">
-        <v>-3055.27002168</v>
+        <v>-3054.9994</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7210,13 +7210,13 @@
         <v>-2806</v>
       </c>
       <c r="E296">
-        <v>34499.99999996481</v>
+        <v>34502</v>
       </c>
       <c r="F296" s="1">
-        <v>0.1589277380449134</v>
+        <v>0.1589375296551025</v>
       </c>
       <c r="G296">
-        <v>-2806.686703320001</v>
+        <v>-2806.4381</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7233,13 +7233,13 @@
         <v>-2806</v>
       </c>
       <c r="E297">
-        <v>31693.99999996481</v>
+        <v>31696</v>
       </c>
       <c r="F297" s="1">
-        <v>0.1460016153505806</v>
+        <v>0.1460113599196606</v>
       </c>
       <c r="G297">
-        <v>-2806.686703320001</v>
+        <v>-2806.4381</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7256,13 +7256,13 @@
         <v>-2806</v>
       </c>
       <c r="E298">
-        <v>28887.99999996481</v>
+        <v>28890</v>
       </c>
       <c r="F298" s="1">
-        <v>0.1330754926562478</v>
+        <v>0.1330851901842187</v>
       </c>
       <c r="G298">
-        <v>-2806.686703320001</v>
+        <v>-2806.4381</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7279,13 +7279,13 @@
         <v>-2806</v>
       </c>
       <c r="E299">
-        <v>26081.99999996481</v>
+        <v>26084</v>
       </c>
       <c r="F299" s="1">
-        <v>0.120149369961915</v>
+        <v>0.1201590204487767</v>
       </c>
       <c r="G299">
-        <v>-2806.686703320001</v>
+        <v>-2806.4381</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7302,13 +7302,13 @@
         <v>-2475</v>
       </c>
       <c r="E300">
-        <v>23606.99999996481</v>
+        <v>23609</v>
       </c>
       <c r="F300" s="1">
-        <v>0.1087480322325943</v>
+        <v>0.1087576412273873</v>
       </c>
       <c r="G300">
-        <v>-2475.25439658</v>
+        <v>-2475.03515</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7325,13 +7325,13 @@
         <v>-2475</v>
       </c>
       <c r="E301">
-        <v>21131.99999996481</v>
+        <v>21134</v>
       </c>
       <c r="F301" s="1">
-        <v>0.0973466945032737</v>
+        <v>0.09735626200599781</v>
       </c>
       <c r="G301">
-        <v>-2475.25439658</v>
+        <v>-2475.03515</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7348,13 +7348,13 @@
         <v>-2475</v>
       </c>
       <c r="E302">
-        <v>18656.99999996481</v>
+        <v>18659</v>
       </c>
       <c r="F302" s="1">
-        <v>0.08594535677395307</v>
+        <v>0.08595488278460837</v>
       </c>
       <c r="G302">
-        <v>-2475.25439658</v>
+        <v>-2475.03515</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7371,13 +7371,13 @@
         <v>-2143</v>
       </c>
       <c r="E303">
-        <v>16513.99999996481</v>
+        <v>16516</v>
       </c>
       <c r="F303" s="1">
-        <v>0.07607341061074736</v>
+        <v>0.07608290069513864</v>
       </c>
       <c r="G303">
-        <v>-2143.78573662</v>
+        <v>-2143.59585</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7394,13 +7394,13 @@
         <v>-2143</v>
       </c>
       <c r="E304">
-        <v>14370.99999996481</v>
+        <v>14373</v>
       </c>
       <c r="F304" s="1">
-        <v>0.06620146444754167</v>
+        <v>0.0662109186056689</v>
       </c>
       <c r="G304">
-        <v>-2143.78573662</v>
+        <v>-2143.59585</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7417,13 +7417,13 @@
         <v>-2143</v>
       </c>
       <c r="E305">
-        <v>12227.99999996481</v>
+        <v>12230</v>
       </c>
       <c r="F305" s="1">
-        <v>0.05632951828433597</v>
+        <v>0.05633893651619917</v>
       </c>
       <c r="G305">
-        <v>-2143.78573662</v>
+        <v>-2143.59585</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7440,13 +7440,13 @@
         <v>-2143</v>
       </c>
       <c r="E306">
-        <v>10084.99999996481</v>
+        <v>10087</v>
       </c>
       <c r="F306" s="1">
-        <v>0.04645757212113026</v>
+        <v>0.04646695442672944</v>
       </c>
       <c r="G306">
-        <v>-2143.78573662</v>
+        <v>-2143.59585</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7463,13 +7463,13 @@
         <v>-1812</v>
       </c>
       <c r="E307">
-        <v>8272.999999964812</v>
+        <v>8275</v>
       </c>
       <c r="F307" s="1">
-        <v>0.03811041092293673</v>
+        <v>0.0381197628513122</v>
       </c>
       <c r="G307">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7483,16 +7483,16 @@
         <v>2</v>
       </c>
       <c r="D308">
-        <v>-1811.999999964812</v>
+        <v>-1812</v>
       </c>
       <c r="E308">
-        <v>6461</v>
+        <v>6463</v>
       </c>
       <c r="F308" s="1">
-        <v>0.0297632497249053</v>
+        <v>0.02977257127589495</v>
       </c>
       <c r="G308">
-        <v>-1812.353429844766</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7506,16 +7506,16 @@
         <v>2</v>
       </c>
       <c r="D309">
-        <v>0</v>
+        <v>-1812</v>
       </c>
       <c r="E309">
-        <v>6461</v>
+        <v>4651</v>
       </c>
       <c r="F309" s="1">
-        <v>0.0297632497249053</v>
+        <v>0.0214253797004777</v>
       </c>
       <c r="G309">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7532,13 +7532,13 @@
         <v>-1812</v>
       </c>
       <c r="E310">
-        <v>4649</v>
+        <v>2839</v>
       </c>
       <c r="F310" s="1">
-        <v>0.02141608852671177</v>
+        <v>0.01307818812506046</v>
       </c>
       <c r="G310">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7552,16 +7552,16 @@
         <v>2</v>
       </c>
       <c r="D311">
-        <v>-1812</v>
+        <v>0</v>
       </c>
       <c r="E311">
-        <v>2837</v>
+        <v>2839</v>
       </c>
       <c r="F311" s="1">
-        <v>0.01306892732851824</v>
+        <v>0.01307818812506046</v>
       </c>
       <c r="G311">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7575,16 +7575,16 @@
         <v>2</v>
       </c>
       <c r="D312">
-        <v>-1025</v>
+        <v>0</v>
       </c>
       <c r="E312">
-        <v>1812</v>
+        <v>2839</v>
       </c>
       <c r="F312" s="1">
-        <v>0.00834716119819353</v>
+        <v>0.01307818812506046</v>
       </c>
       <c r="G312">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7601,13 +7601,13 @@
         <v>0</v>
       </c>
       <c r="E313">
-        <v>1812</v>
+        <v>2839</v>
       </c>
       <c r="F313" s="1">
-        <v>0.00834716119819353</v>
+        <v>0.01307818812506046</v>
       </c>
       <c r="G313">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7621,16 +7621,16 @@
         <v>2</v>
       </c>
       <c r="D314">
-        <v>0</v>
+        <v>-1812</v>
       </c>
       <c r="E314">
-        <v>1812</v>
+        <v>1027</v>
       </c>
       <c r="F314" s="1">
-        <v>0.00834716119819353</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G314">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7647,13 +7647,13 @@
         <v>0</v>
       </c>
       <c r="E315">
-        <v>1812</v>
+        <v>1027</v>
       </c>
       <c r="F315" s="1">
-        <v>0.00834716119819353</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G315">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7670,13 +7670,13 @@
         <v>0</v>
       </c>
       <c r="E316">
-        <v>1812</v>
+        <v>1027</v>
       </c>
       <c r="F316" s="1">
-        <v>0.00834716119819353</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G316">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7690,16 +7690,16 @@
         <v>2</v>
       </c>
       <c r="D317">
-        <v>-1812</v>
+        <v>0</v>
       </c>
       <c r="E317">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F317" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G317">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7716,13 +7716,13 @@
         <v>0</v>
       </c>
       <c r="E318">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F318" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G318">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7739,13 +7739,13 @@
         <v>0</v>
       </c>
       <c r="E319">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F319" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G319">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7762,13 +7762,13 @@
         <v>0</v>
       </c>
       <c r="E320">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F320" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G320">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7785,13 +7785,13 @@
         <v>0</v>
       </c>
       <c r="E321">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F321" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G321">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7808,13 +7808,13 @@
         <v>0</v>
       </c>
       <c r="E322">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F322" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G322">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7831,13 +7831,13 @@
         <v>0</v>
       </c>
       <c r="E323">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F323" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G323">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7854,13 +7854,13 @@
         <v>0</v>
       </c>
       <c r="E324">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F324" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G324">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7877,13 +7877,13 @@
         <v>0</v>
       </c>
       <c r="E325">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F325" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G325">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7900,13 +7900,13 @@
         <v>0</v>
       </c>
       <c r="E326">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F326" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G326">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7923,13 +7923,13 @@
         <v>0</v>
       </c>
       <c r="E327">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F327" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G327">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7946,13 +7946,13 @@
         <v>0</v>
       </c>
       <c r="E328">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F328" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G328">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7969,13 +7969,13 @@
         <v>0</v>
       </c>
       <c r="E329">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F329" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G329">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7992,13 +7992,13 @@
         <v>0</v>
       </c>
       <c r="E330">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F330" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G330">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="E331">
-        <v>0</v>
+        <v>1027</v>
       </c>
       <c r="F331" s="1">
-        <v>0</v>
+        <v>0.004730996549643218</v>
       </c>
       <c r="G331">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8035,7 +8035,7 @@
         <v>2</v>
       </c>
       <c r="D332">
-        <v>0</v>
+        <v>-1027</v>
       </c>
       <c r="E332">
         <v>0</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="G332">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8067,7 +8067,7 @@
         <v>0</v>
       </c>
       <c r="G333">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="G334">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="G335">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="G336">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8159,7 +8159,7 @@
         <v>0</v>
       </c>
       <c r="G337">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8182,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="G338">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="G339">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="G340">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="G341">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
       <c r="G342">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8297,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="G343">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8320,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="G344">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8343,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="G345">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8366,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="G346">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -8389,7 +8389,7 @@
         <v>0</v>
       </c>
       <c r="G347">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="G348">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8435,7 +8435,7 @@
         <v>0</v>
       </c>
       <c r="G349">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -8458,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="G350">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8481,7 +8481,7 @@
         <v>0</v>
       </c>
       <c r="G351">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8504,7 +8504,7 @@
         <v>0</v>
       </c>
       <c r="G352">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8527,7 +8527,7 @@
         <v>0</v>
       </c>
       <c r="G353">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="G354">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="G355">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -8590,13 +8590,13 @@
         <v>0</v>
       </c>
       <c r="E356">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F356" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G356">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -8613,13 +8613,13 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F357" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G357">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -8636,13 +8636,13 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F358" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G358">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -8659,13 +8659,13 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F359" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G359">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8682,13 +8682,13 @@
         <v>0</v>
       </c>
       <c r="E360">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F360" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G360">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="E361">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F361" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G361">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -8734,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="G362">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="G363">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
       <c r="G364">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="G365">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -8826,7 +8826,7 @@
         <v>0</v>
       </c>
       <c r="G366">
-        <v>-1812.35342988</v>
+        <v>-1812.1929</v>
       </c>
     </row>
   </sheetData>
@@ -8870,13 +8870,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>8673.000000013044</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="D2">
-        <v>8673.000000013044</v>
+        <v>8673.000000045995</v>
       </c>
       <c r="E2" s="1">
-        <v>0.03995305136426124</v>
+        <v>0.03995319676268085</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -8887,13 +8887,13 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>67610.99999996826</v>
+        <v>67610.99999994432</v>
       </c>
       <c r="D3">
-        <v>76283.9999999813</v>
+        <v>76283.99999999032</v>
       </c>
       <c r="E3" s="1">
-        <v>0.3514099585225382</v>
+        <v>0.3514112373835807</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -8907,10 +8907,10 @@
         <v>65430</v>
       </c>
       <c r="D4">
-        <v>141713.9999999813</v>
+        <v>141713.9999999903</v>
       </c>
       <c r="E4" s="1">
-        <v>0.652819868675851</v>
+        <v>0.6528222444363128</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -8921,13 +8921,13 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>64042</v>
+        <v>64035.00000000968</v>
       </c>
       <c r="D5">
-        <v>205755.9999999813</v>
+        <v>205749</v>
       </c>
       <c r="E5" s="1">
-        <v>0.9478358164985387</v>
+        <v>0.9478070195643061</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -8938,13 +8938,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>11323.0000000187</v>
+        <v>11329.99999999997</v>
       </c>
       <c r="D6">
         <v>217079</v>
       </c>
       <c r="E6" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -8955,13 +8955,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>3.085176558670354E-11</v>
       </c>
       <c r="D7">
         <v>217079</v>
       </c>
       <c r="E7" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -8978,7 +8978,7 @@
         <v>217079</v>
       </c>
       <c r="E8" s="1">
-        <v>0.9999963607851288</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -8989,13 +8989,13 @@
         <v>11</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-2.349763050799049E-09</v>
       </c>
       <c r="D9">
-        <v>217079</v>
+        <v>217078.9999999976</v>
       </c>
       <c r="E9" s="1">
-        <v>0.9999963607851288</v>
+        <v>0.9999999999999891</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -9006,13 +9006,13 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>-112200.0000000436</v>
+        <v>-112199.9999999977</v>
       </c>
       <c r="D10">
-        <v>104878.9999999564</v>
+        <v>104879</v>
       </c>
       <c r="E10" s="1">
-        <v>0.4831357170557258</v>
+        <v>0.4831374752970116</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9023,13 +9023,13 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>-96605.99999999157</v>
+        <v>-96604</v>
       </c>
       <c r="D11">
-        <v>8272.999999964813</v>
+        <v>8274.999999999985</v>
       </c>
       <c r="E11" s="1">
-        <v>0.03811041092293674</v>
+        <v>0.03811976285131213</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9040,13 +9040,13 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>-8272.999999964812</v>
+        <v>-8275</v>
       </c>
       <c r="D12">
-        <v>1.818989403545856E-12</v>
+        <v>-1.455191522836685E-11</v>
       </c>
       <c r="E12" s="1">
-        <v>8.379358592275479E-18</v>
+        <v>-6.703511269338283E-17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9060,10 +9060,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.818989403545856E-12</v>
+        <v>-1.455191522836685E-11</v>
       </c>
       <c r="E13" s="1">
-        <v>8.379358592275479E-18</v>
+        <v>-6.703511269338283E-17</v>
       </c>
     </row>
   </sheetData>
